--- a/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.483571294601063</v>
+        <v>2.483571294600949</v>
       </c>
       <c r="C2">
-        <v>0.5591741125182637</v>
+        <v>0.5591741125190026</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.106877674832095</v>
+        <v>0.1068776748320701</v>
       </c>
       <c r="F2">
-        <v>6.703066025411033</v>
+        <v>6.703066025411005</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>2.772340691043581</v>
       </c>
       <c r="J2">
-        <v>0.6810324315004834</v>
+        <v>0.6810324315005616</v>
       </c>
       <c r="K2">
-        <v>0.08986422495934221</v>
+        <v>0.08986422495945368</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.118885074952345</v>
+        <v>2.118885074952004</v>
       </c>
       <c r="C3">
-        <v>0.4759353550610115</v>
+        <v>0.4759353550600167</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08894659033152585</v>
+        <v>0.08894659033146013</v>
       </c>
       <c r="F3">
-        <v>5.754662156984381</v>
+        <v>5.754662156984324</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.392937983688441</v>
+        <v>2.392937983688427</v>
       </c>
       <c r="J3">
-        <v>0.5802620298287948</v>
+        <v>0.5802620298288943</v>
       </c>
       <c r="K3">
-        <v>0.07298025370763828</v>
+        <v>0.07298025370758587</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.9027940583006</v>
+        <v>1.902794058300373</v>
       </c>
       <c r="C4">
-        <v>0.4264706822962694</v>
+        <v>0.4264706822967526</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07873904925667574</v>
+        <v>0.07873904925671482</v>
       </c>
       <c r="F4">
-        <v>5.192168969987421</v>
+        <v>5.192168969987449</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.16850934312717</v>
+        <v>2.168509343127283</v>
       </c>
       <c r="J4">
-        <v>0.5205022490746956</v>
+        <v>0.5205022490746671</v>
       </c>
       <c r="K4">
-        <v>0.06354380794352288</v>
+        <v>0.06354380794350956</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.816389110135361</v>
+        <v>1.816389110135191</v>
       </c>
       <c r="C5">
-        <v>0.4066548888060595</v>
+        <v>0.4066548888067985</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07474200188782021</v>
+        <v>0.07474200188789304</v>
       </c>
       <c r="F5">
-        <v>4.967043209514827</v>
+        <v>4.967043209514742</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.078797140185344</v>
+        <v>2.07879714018533</v>
       </c>
       <c r="J5">
-        <v>0.4965942287088723</v>
+        <v>0.4965942287088936</v>
       </c>
       <c r="K5">
-        <v>0.05988748395174026</v>
+        <v>0.05988748395177712</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.802133179940682</v>
+        <v>1.802133179940796</v>
       </c>
       <c r="C6">
-        <v>0.403383203877155</v>
+        <v>0.4033832038767571</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07408709890714071</v>
+        <v>0.07408709890723308</v>
       </c>
       <c r="F6">
-        <v>4.929885006549114</v>
+        <v>4.929885006549085</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.063995308385799</v>
+        <v>2.063995308385742</v>
       </c>
       <c r="J6">
-        <v>0.4926488645978395</v>
+        <v>0.4926488645978111</v>
       </c>
       <c r="K6">
-        <v>0.05929061159154125</v>
+        <v>0.05929061159148175</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.901622457215836</v>
+        <v>1.901622457215495</v>
       </c>
       <c r="C7">
-        <v>0.4262021446674282</v>
+        <v>0.4262021446670019</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07868453209193937</v>
+        <v>0.07868453209193405</v>
       </c>
       <c r="F7">
         <v>5.189117346958369</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.167292874337406</v>
+        <v>2.167292874337392</v>
       </c>
       <c r="J7">
         <v>0.5201781228982014</v>
       </c>
       <c r="K7">
-        <v>0.06349378537208406</v>
+        <v>0.06349378537205608</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.355998252077313</v>
+        <v>2.355998252076915</v>
       </c>
       <c r="C8">
-        <v>0.5300852879545062</v>
+        <v>0.5300852879549893</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1005026937143807</v>
+        <v>0.10050269371445</v>
       </c>
       <c r="F8">
-        <v>6.37135822527452</v>
+        <v>6.371358225274548</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.639491715069397</v>
+        <v>2.639491715069383</v>
       </c>
       <c r="J8">
-        <v>0.6457915645954984</v>
+        <v>0.6457915645955197</v>
       </c>
       <c r="K8">
-        <v>0.08381985459801733</v>
+        <v>0.0838198545980342</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.32637068448031</v>
+        <v>3.326370684480025</v>
       </c>
       <c r="C9">
-        <v>0.7507903734643833</v>
+        <v>0.750790373463559</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.151887543555091</v>
+        <v>0.1518875435550591</v>
       </c>
       <c r="F9">
-        <v>8.89644603703141</v>
+        <v>8.896446037031495</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.655329373410211</v>
+        <v>3.655329373410368</v>
       </c>
       <c r="J9">
-        <v>0.9136527778839394</v>
+        <v>0.9136527778840815</v>
       </c>
       <c r="K9">
-        <v>0.1336325940094794</v>
+        <v>0.1336325940094341</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.118217579487407</v>
+        <v>4.118217579486497</v>
       </c>
       <c r="C10">
-        <v>0.9302864910051198</v>
+        <v>0.9302864910058304</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1990631401994527</v>
+        <v>0.1990631401993603</v>
       </c>
       <c r="F10">
-        <v>10.96639387951063</v>
+        <v>10.9663938795108</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.496563430775666</v>
+        <v>4.496563430775694</v>
       </c>
       <c r="J10">
-        <v>1.132018397454118</v>
+        <v>1.132018397454161</v>
       </c>
       <c r="K10">
-        <v>0.1811259469200133</v>
+        <v>0.1811259469200053</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.50511119858254</v>
+        <v>4.505111198582313</v>
       </c>
       <c r="C11">
-        <v>1.017886449358684</v>
+        <v>1.017886449360333</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2239733529999377</v>
+        <v>0.2239733530000265</v>
       </c>
       <c r="F11">
-        <v>11.9829430886677</v>
+        <v>11.98294308866764</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.912728200255231</v>
+        <v>4.912728200255259</v>
       </c>
       <c r="J11">
         <v>1.238673620610683</v>
       </c>
       <c r="K11">
-        <v>0.2067230425301645</v>
+        <v>0.2067230425301894</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.65656033764202</v>
+        <v>4.65656033764219</v>
       </c>
       <c r="C12">
-        <v>1.05216573778074</v>
+        <v>1.052165737779887</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2340756741027725</v>
+        <v>0.2340756741027512</v>
       </c>
       <c r="F12">
-        <v>12.38199781153958</v>
+        <v>12.38199781153969</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>5.076664578890359</v>
       </c>
       <c r="J12">
-        <v>1.28041924338207</v>
+        <v>1.280419243382084</v>
       </c>
       <c r="K12">
-        <v>0.2171912875222457</v>
+        <v>0.2171912875222066</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.623701898616048</v>
+        <v>4.623701898615991</v>
       </c>
       <c r="C13">
-        <v>1.044728962136162</v>
+        <v>1.044728962138123</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2318667163169117</v>
+        <v>0.2318667163170005</v>
       </c>
       <c r="F13">
-        <v>12.29536137283969</v>
+        <v>12.29536137283947</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.041045761775763</v>
+        <v>5.041045761775734</v>
       </c>
       <c r="J13">
-        <v>1.271362285840908</v>
+        <v>1.27136228584088</v>
       </c>
       <c r="K13">
-        <v>0.2148982562985839</v>
+        <v>0.2148982562984951</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.517464407922091</v>
+        <v>4.517464407922034</v>
       </c>
       <c r="C14">
-        <v>1.020682711747696</v>
+        <v>1.020682711749572</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2247898362485365</v>
+        <v>0.2247898362485543</v>
       </c>
       <c r="F14">
-        <v>12.01546767373441</v>
+        <v>12.01546767373412</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.926077582226867</v>
+        <v>4.92607758222664</v>
       </c>
       <c r="J14">
-        <v>1.24207875705234</v>
+        <v>1.242078757052425</v>
       </c>
       <c r="K14">
-        <v>0.2075673125220696</v>
+        <v>0.2075673125221034</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.453073009084051</v>
+        <v>4.453073009084619</v>
       </c>
       <c r="C15">
-        <v>1.006106681739084</v>
+        <v>1.006106681740221</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2205484523029426</v>
+        <v>0.2205484523030457</v>
       </c>
       <c r="F15">
-        <v>11.84598002235452</v>
+        <v>11.84598002235424</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.856536556242474</v>
+        <v>4.856536556242304</v>
       </c>
       <c r="J15">
-        <v>1.224329229885996</v>
+        <v>1.224329229885953</v>
       </c>
       <c r="K15">
-        <v>0.2031850918067502</v>
+        <v>0.2031850918066898</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.093556984291013</v>
+        <v>4.093556984290331</v>
       </c>
       <c r="C16">
-        <v>0.9247011338423476</v>
+        <v>0.9247011338412676</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1975180545492066</v>
+        <v>0.1975180545493025</v>
       </c>
       <c r="F16">
-        <v>10.90172903111892</v>
+        <v>10.90172903111909</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.470159493437166</v>
+        <v>4.470159493437365</v>
       </c>
       <c r="J16">
-        <v>1.125219538848924</v>
+        <v>1.125219538848853</v>
       </c>
       <c r="K16">
-        <v>0.1795490396499453</v>
+        <v>0.1795490396499986</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.880525672760996</v>
+        <v>3.880525672761678</v>
       </c>
       <c r="C17">
-        <v>0.8764413274446099</v>
+        <v>0.8764413274444678</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1843783540208115</v>
+        <v>0.1843783540209429</v>
       </c>
       <c r="F17">
-        <v>10.34370990618945</v>
+        <v>10.34370990618962</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.242647059215898</v>
+        <v>4.24264705921604</v>
       </c>
       <c r="J17">
-        <v>1.066483474098163</v>
+        <v>1.066483474098149</v>
       </c>
       <c r="K17">
-        <v>0.166193531511551</v>
+        <v>0.1661935315115075</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.760424906622461</v>
+        <v>3.760424906621779</v>
       </c>
       <c r="C18">
-        <v>0.8492245817677428</v>
+        <v>0.8492245817691924</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1771322511302991</v>
+        <v>0.1771322511303417</v>
       </c>
       <c r="F18">
-        <v>10.02955439689981</v>
+        <v>10.02955439690001</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.114824880333799</v>
+        <v>4.114824880333856</v>
       </c>
       <c r="J18">
-        <v>1.033366385483106</v>
+        <v>1.033366385483006</v>
       </c>
       <c r="K18">
-        <v>0.158872218166775</v>
+        <v>0.1588722181667954</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.720149568668262</v>
+        <v>3.720149568668376</v>
       </c>
       <c r="C19">
-        <v>0.8400958715030811</v>
+        <v>0.8400958715038769</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1747280149674282</v>
+        <v>0.174728014967414</v>
       </c>
       <c r="F19">
         <v>9.924269788423572</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.072029137051516</v>
+        <v>4.072029137051601</v>
       </c>
       <c r="J19">
-        <v>1.022260080431195</v>
+        <v>1.022260080431224</v>
       </c>
       <c r="K19">
-        <v>0.1564502252328275</v>
+        <v>0.1564502252328213</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.90294484588577</v>
+        <v>3.902944845885941</v>
       </c>
       <c r="C20">
-        <v>0.8815210837977077</v>
+        <v>0.8815210837960876</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.266542303254852</v>
+        <v>4.266542303254823</v>
       </c>
       <c r="J20">
-        <v>1.07266514216802</v>
+        <v>1.072665142167907</v>
       </c>
       <c r="K20">
-        <v>0.1675767127529877</v>
+        <v>0.1675767127529344</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.548524289885222</v>
+        <v>4.548524289885336</v>
       </c>
       <c r="C21">
-        <v>1.027713227699905</v>
+        <v>1.027713227700929</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2268486149380493</v>
+        <v>0.226848614937996</v>
       </c>
       <c r="F21">
-        <v>12.09726414077045</v>
+        <v>12.09726414077022</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.959659567301571</v>
+        <v>4.959659567301259</v>
       </c>
       <c r="J21">
-        <v>1.250640281590336</v>
+        <v>1.25064028159008</v>
       </c>
       <c r="K21">
-        <v>0.2096975694056677</v>
+        <v>0.2096975694058028</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.000044825650093</v>
+        <v>5.000044825649695</v>
       </c>
       <c r="C22">
-        <v>1.129892752407102</v>
+        <v>1.12989275240551</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2577487798498375</v>
+        <v>0.2577487798497913</v>
       </c>
       <c r="F22">
-        <v>13.28966908327385</v>
+        <v>13.28966908327362</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.450765179498518</v>
+        <v>5.450765179498319</v>
       </c>
       <c r="J22">
-        <v>1.375090628955576</v>
+        <v>1.375090628955604</v>
       </c>
       <c r="K22">
-        <v>0.2419001834957992</v>
+        <v>0.2419001834957619</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.755887089862824</v>
+        <v>4.755887089863165</v>
       </c>
       <c r="C23">
-        <v>1.074644694913445</v>
+        <v>1.074644694911171</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2408115125259798</v>
+        <v>0.2408115125259229</v>
       </c>
       <c r="F23">
-        <v>12.64408784607264</v>
+        <v>12.64408784607235</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.184511198506499</v>
+        <v>5.184511198506357</v>
       </c>
       <c r="J23">
         <v>1.307796670760041</v>
       </c>
       <c r="K23">
-        <v>0.2241971261509299</v>
+        <v>0.224197126150866</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.892801822258491</v>
+        <v>3.892801822258207</v>
       </c>
       <c r="C24">
-        <v>0.8792228977909531</v>
+        <v>0.8792228977915499</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1851255316676195</v>
+        <v>0.1851255316676372</v>
       </c>
       <c r="F24">
-        <v>10.37583865705503</v>
+        <v>10.37583865705528</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.255730096184436</v>
+        <v>4.255730096184664</v>
       </c>
       <c r="J24">
-        <v>1.069868403765227</v>
+        <v>1.069868403765312</v>
       </c>
       <c r="K24">
-        <v>0.166950278765345</v>
+        <v>0.1669502787653361</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.052628640084947</v>
+        <v>3.05262864008489</v>
       </c>
       <c r="C25">
-        <v>0.6886387488024184</v>
+        <v>0.6886387488018499</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1367031138513859</v>
+        <v>0.1367031138513433</v>
       </c>
       <c r="F25">
-        <v>8.183327792070486</v>
+        <v>8.183327792070571</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>3.367345128248999</v>
       </c>
       <c r="J25">
-        <v>0.838127679832283</v>
+        <v>0.8381276798322261</v>
       </c>
       <c r="K25">
-        <v>0.1186731032524175</v>
+        <v>0.1186731032523367</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.483571294600949</v>
+        <v>2.483571294601063</v>
       </c>
       <c r="C2">
-        <v>0.5591741125190026</v>
+        <v>0.5591741125182637</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1068776748320701</v>
+        <v>0.106877674832095</v>
       </c>
       <c r="F2">
-        <v>6.703066025411005</v>
+        <v>6.703066025411033</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>2.772340691043581</v>
       </c>
       <c r="J2">
-        <v>0.6810324315005616</v>
+        <v>0.6810324315004834</v>
       </c>
       <c r="K2">
-        <v>0.08986422495945368</v>
+        <v>0.08986422495934221</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.118885074952004</v>
+        <v>2.118885074952345</v>
       </c>
       <c r="C3">
-        <v>0.4759353550600167</v>
+        <v>0.4759353550610115</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08894659033146013</v>
+        <v>0.08894659033152585</v>
       </c>
       <c r="F3">
-        <v>5.754662156984324</v>
+        <v>5.754662156984381</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.392937983688427</v>
+        <v>2.392937983688441</v>
       </c>
       <c r="J3">
-        <v>0.5802620298288943</v>
+        <v>0.5802620298287948</v>
       </c>
       <c r="K3">
-        <v>0.07298025370758587</v>
+        <v>0.07298025370763828</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.902794058300373</v>
+        <v>1.9027940583006</v>
       </c>
       <c r="C4">
-        <v>0.4264706822967526</v>
+        <v>0.4264706822962694</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07873904925671482</v>
+        <v>0.07873904925667574</v>
       </c>
       <c r="F4">
-        <v>5.192168969987449</v>
+        <v>5.192168969987421</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.168509343127283</v>
+        <v>2.16850934312717</v>
       </c>
       <c r="J4">
-        <v>0.5205022490746671</v>
+        <v>0.5205022490746956</v>
       </c>
       <c r="K4">
-        <v>0.06354380794350956</v>
+        <v>0.06354380794352288</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.816389110135191</v>
+        <v>1.816389110135361</v>
       </c>
       <c r="C5">
-        <v>0.4066548888067985</v>
+        <v>0.4066548888060595</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07474200188789304</v>
+        <v>0.07474200188782021</v>
       </c>
       <c r="F5">
-        <v>4.967043209514742</v>
+        <v>4.967043209514827</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.07879714018533</v>
+        <v>2.078797140185344</v>
       </c>
       <c r="J5">
-        <v>0.4965942287088936</v>
+        <v>0.4965942287088723</v>
       </c>
       <c r="K5">
-        <v>0.05988748395177712</v>
+        <v>0.05988748395174026</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.802133179940796</v>
+        <v>1.802133179940682</v>
       </c>
       <c r="C6">
-        <v>0.4033832038767571</v>
+        <v>0.403383203877155</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07408709890723308</v>
+        <v>0.07408709890714071</v>
       </c>
       <c r="F6">
-        <v>4.929885006549085</v>
+        <v>4.929885006549114</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.063995308385742</v>
+        <v>2.063995308385799</v>
       </c>
       <c r="J6">
-        <v>0.4926488645978111</v>
+        <v>0.4926488645978395</v>
       </c>
       <c r="K6">
-        <v>0.05929061159148175</v>
+        <v>0.05929061159154125</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.901622457215495</v>
+        <v>1.901622457215836</v>
       </c>
       <c r="C7">
-        <v>0.4262021446670019</v>
+        <v>0.4262021446674282</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07868453209193405</v>
+        <v>0.07868453209193937</v>
       </c>
       <c r="F7">
         <v>5.189117346958369</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.167292874337392</v>
+        <v>2.167292874337406</v>
       </c>
       <c r="J7">
         <v>0.5201781228982014</v>
       </c>
       <c r="K7">
-        <v>0.06349378537205608</v>
+        <v>0.06349378537208406</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.355998252076915</v>
+        <v>2.355998252077313</v>
       </c>
       <c r="C8">
-        <v>0.5300852879549893</v>
+        <v>0.5300852879545062</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.10050269371445</v>
+        <v>0.1005026937143807</v>
       </c>
       <c r="F8">
-        <v>6.371358225274548</v>
+        <v>6.37135822527452</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.639491715069383</v>
+        <v>2.639491715069397</v>
       </c>
       <c r="J8">
-        <v>0.6457915645955197</v>
+        <v>0.6457915645954984</v>
       </c>
       <c r="K8">
-        <v>0.0838198545980342</v>
+        <v>0.08381985459801733</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.326370684480025</v>
+        <v>3.32637068448031</v>
       </c>
       <c r="C9">
-        <v>0.750790373463559</v>
+        <v>0.7507903734643833</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1518875435550591</v>
+        <v>0.151887543555091</v>
       </c>
       <c r="F9">
-        <v>8.896446037031495</v>
+        <v>8.89644603703141</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.655329373410368</v>
+        <v>3.655329373410211</v>
       </c>
       <c r="J9">
-        <v>0.9136527778840815</v>
+        <v>0.9136527778839394</v>
       </c>
       <c r="K9">
-        <v>0.1336325940094341</v>
+        <v>0.1336325940094794</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.118217579486497</v>
+        <v>4.118217579487407</v>
       </c>
       <c r="C10">
-        <v>0.9302864910058304</v>
+        <v>0.9302864910051198</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1990631401993603</v>
+        <v>0.1990631401994527</v>
       </c>
       <c r="F10">
-        <v>10.9663938795108</v>
+        <v>10.96639387951063</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.496563430775694</v>
+        <v>4.496563430775666</v>
       </c>
       <c r="J10">
-        <v>1.132018397454161</v>
+        <v>1.132018397454118</v>
       </c>
       <c r="K10">
-        <v>0.1811259469200053</v>
+        <v>0.1811259469200133</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.505111198582313</v>
+        <v>4.50511119858254</v>
       </c>
       <c r="C11">
-        <v>1.017886449360333</v>
+        <v>1.017886449358684</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2239733530000265</v>
+        <v>0.2239733529999377</v>
       </c>
       <c r="F11">
-        <v>11.98294308866764</v>
+        <v>11.9829430886677</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.912728200255259</v>
+        <v>4.912728200255231</v>
       </c>
       <c r="J11">
         <v>1.238673620610683</v>
       </c>
       <c r="K11">
-        <v>0.2067230425301894</v>
+        <v>0.2067230425301645</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.65656033764219</v>
+        <v>4.65656033764202</v>
       </c>
       <c r="C12">
-        <v>1.052165737779887</v>
+        <v>1.05216573778074</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2340756741027512</v>
+        <v>0.2340756741027725</v>
       </c>
       <c r="F12">
-        <v>12.38199781153969</v>
+        <v>12.38199781153958</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>5.076664578890359</v>
       </c>
       <c r="J12">
-        <v>1.280419243382084</v>
+        <v>1.28041924338207</v>
       </c>
       <c r="K12">
-        <v>0.2171912875222066</v>
+        <v>0.2171912875222457</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.623701898615991</v>
+        <v>4.623701898616048</v>
       </c>
       <c r="C13">
-        <v>1.044728962138123</v>
+        <v>1.044728962136162</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2318667163170005</v>
+        <v>0.2318667163169117</v>
       </c>
       <c r="F13">
-        <v>12.29536137283947</v>
+        <v>12.29536137283969</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.041045761775734</v>
+        <v>5.041045761775763</v>
       </c>
       <c r="J13">
-        <v>1.27136228584088</v>
+        <v>1.271362285840908</v>
       </c>
       <c r="K13">
-        <v>0.2148982562984951</v>
+        <v>0.2148982562985839</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.517464407922034</v>
+        <v>4.517464407922091</v>
       </c>
       <c r="C14">
-        <v>1.020682711749572</v>
+        <v>1.020682711747696</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2247898362485543</v>
+        <v>0.2247898362485365</v>
       </c>
       <c r="F14">
-        <v>12.01546767373412</v>
+        <v>12.01546767373441</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.92607758222664</v>
+        <v>4.926077582226867</v>
       </c>
       <c r="J14">
-        <v>1.242078757052425</v>
+        <v>1.24207875705234</v>
       </c>
       <c r="K14">
-        <v>0.2075673125221034</v>
+        <v>0.2075673125220696</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.453073009084619</v>
+        <v>4.453073009084051</v>
       </c>
       <c r="C15">
-        <v>1.006106681740221</v>
+        <v>1.006106681739084</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2205484523030457</v>
+        <v>0.2205484523029426</v>
       </c>
       <c r="F15">
-        <v>11.84598002235424</v>
+        <v>11.84598002235452</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.856536556242304</v>
+        <v>4.856536556242474</v>
       </c>
       <c r="J15">
-        <v>1.224329229885953</v>
+        <v>1.224329229885996</v>
       </c>
       <c r="K15">
-        <v>0.2031850918066898</v>
+        <v>0.2031850918067502</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.093556984290331</v>
+        <v>4.093556984291013</v>
       </c>
       <c r="C16">
-        <v>0.9247011338412676</v>
+        <v>0.9247011338423476</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1975180545493025</v>
+        <v>0.1975180545492066</v>
       </c>
       <c r="F16">
-        <v>10.90172903111909</v>
+        <v>10.90172903111892</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.470159493437365</v>
+        <v>4.470159493437166</v>
       </c>
       <c r="J16">
-        <v>1.125219538848853</v>
+        <v>1.125219538848924</v>
       </c>
       <c r="K16">
-        <v>0.1795490396499986</v>
+        <v>0.1795490396499453</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.880525672761678</v>
+        <v>3.880525672760996</v>
       </c>
       <c r="C17">
-        <v>0.8764413274444678</v>
+        <v>0.8764413274446099</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1843783540209429</v>
+        <v>0.1843783540208115</v>
       </c>
       <c r="F17">
-        <v>10.34370990618962</v>
+        <v>10.34370990618945</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.24264705921604</v>
+        <v>4.242647059215898</v>
       </c>
       <c r="J17">
-        <v>1.066483474098149</v>
+        <v>1.066483474098163</v>
       </c>
       <c r="K17">
-        <v>0.1661935315115075</v>
+        <v>0.166193531511551</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.760424906621779</v>
+        <v>3.760424906622461</v>
       </c>
       <c r="C18">
-        <v>0.8492245817691924</v>
+        <v>0.8492245817677428</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1771322511303417</v>
+        <v>0.1771322511302991</v>
       </c>
       <c r="F18">
-        <v>10.02955439690001</v>
+        <v>10.02955439689981</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.114824880333856</v>
+        <v>4.114824880333799</v>
       </c>
       <c r="J18">
-        <v>1.033366385483006</v>
+        <v>1.033366385483106</v>
       </c>
       <c r="K18">
-        <v>0.1588722181667954</v>
+        <v>0.158872218166775</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.720149568668376</v>
+        <v>3.720149568668262</v>
       </c>
       <c r="C19">
-        <v>0.8400958715038769</v>
+        <v>0.8400958715030811</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.174728014967414</v>
+        <v>0.1747280149674282</v>
       </c>
       <c r="F19">
         <v>9.924269788423572</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.072029137051601</v>
+        <v>4.072029137051516</v>
       </c>
       <c r="J19">
-        <v>1.022260080431224</v>
+        <v>1.022260080431195</v>
       </c>
       <c r="K19">
-        <v>0.1564502252328213</v>
+        <v>0.1564502252328275</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.902944845885941</v>
+        <v>3.90294484588577</v>
       </c>
       <c r="C20">
-        <v>0.8815210837960876</v>
+        <v>0.8815210837977077</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.266542303254823</v>
+        <v>4.266542303254852</v>
       </c>
       <c r="J20">
-        <v>1.072665142167907</v>
+        <v>1.07266514216802</v>
       </c>
       <c r="K20">
-        <v>0.1675767127529344</v>
+        <v>0.1675767127529877</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.548524289885336</v>
+        <v>4.548524289885222</v>
       </c>
       <c r="C21">
-        <v>1.027713227700929</v>
+        <v>1.027713227699905</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.226848614937996</v>
+        <v>0.2268486149380493</v>
       </c>
       <c r="F21">
-        <v>12.09726414077022</v>
+        <v>12.09726414077045</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.959659567301259</v>
+        <v>4.959659567301571</v>
       </c>
       <c r="J21">
-        <v>1.25064028159008</v>
+        <v>1.250640281590336</v>
       </c>
       <c r="K21">
-        <v>0.2096975694058028</v>
+        <v>0.2096975694056677</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.000044825649695</v>
+        <v>5.000044825650093</v>
       </c>
       <c r="C22">
-        <v>1.12989275240551</v>
+        <v>1.129892752407102</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2577487798497913</v>
+        <v>0.2577487798498375</v>
       </c>
       <c r="F22">
-        <v>13.28966908327362</v>
+        <v>13.28966908327385</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.450765179498319</v>
+        <v>5.450765179498518</v>
       </c>
       <c r="J22">
-        <v>1.375090628955604</v>
+        <v>1.375090628955576</v>
       </c>
       <c r="K22">
-        <v>0.2419001834957619</v>
+        <v>0.2419001834957992</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.755887089863165</v>
+        <v>4.755887089862824</v>
       </c>
       <c r="C23">
-        <v>1.074644694911171</v>
+        <v>1.074644694913445</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2408115125259229</v>
+        <v>0.2408115125259798</v>
       </c>
       <c r="F23">
-        <v>12.64408784607235</v>
+        <v>12.64408784607264</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.184511198506357</v>
+        <v>5.184511198506499</v>
       </c>
       <c r="J23">
         <v>1.307796670760041</v>
       </c>
       <c r="K23">
-        <v>0.224197126150866</v>
+        <v>0.2241971261509299</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.892801822258207</v>
+        <v>3.892801822258491</v>
       </c>
       <c r="C24">
-        <v>0.8792228977915499</v>
+        <v>0.8792228977909531</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1851255316676372</v>
+        <v>0.1851255316676195</v>
       </c>
       <c r="F24">
-        <v>10.37583865705528</v>
+        <v>10.37583865705503</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.255730096184664</v>
+        <v>4.255730096184436</v>
       </c>
       <c r="J24">
-        <v>1.069868403765312</v>
+        <v>1.069868403765227</v>
       </c>
       <c r="K24">
-        <v>0.1669502787653361</v>
+        <v>0.166950278765345</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.05262864008489</v>
+        <v>3.052628640084947</v>
       </c>
       <c r="C25">
-        <v>0.6886387488018499</v>
+        <v>0.6886387488024184</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1367031138513433</v>
+        <v>0.1367031138513859</v>
       </c>
       <c r="F25">
-        <v>8.183327792070571</v>
+        <v>8.183327792070486</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>3.367345128248999</v>
       </c>
       <c r="J25">
-        <v>0.8381276798322261</v>
+        <v>0.838127679832283</v>
       </c>
       <c r="K25">
-        <v>0.1186731032523367</v>
+        <v>0.1186731032524175</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.483571294601063</v>
+        <v>2.455428848457188</v>
       </c>
       <c r="C2">
-        <v>0.5591741125182637</v>
+        <v>0.5472382191479142</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.106877674832095</v>
+        <v>0.1112267010107111</v>
       </c>
       <c r="F2">
-        <v>6.703066025411033</v>
+        <v>6.692581264069503</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007838122754156044</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.772340691043581</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6810324315004834</v>
+        <v>2.777148087795609</v>
       </c>
       <c r="K2">
-        <v>0.08986422495934221</v>
+        <v>0.6718612301484512</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.09079906685208483</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.118885074952345</v>
+        <v>2.09688420294367</v>
       </c>
       <c r="C3">
-        <v>0.4759353550610115</v>
+        <v>0.4657228577706576</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08894659033152585</v>
+        <v>0.09302469724568496</v>
       </c>
       <c r="F3">
-        <v>5.754662156984381</v>
+        <v>5.748738491656894</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007963691217175937</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.392937983688441</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5802620298287948</v>
+        <v>2.399774727309307</v>
       </c>
       <c r="K3">
-        <v>0.07298025370763828</v>
+        <v>0.5728949139734709</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.0738980391553099</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.9027940583006</v>
+        <v>1.884506855735879</v>
       </c>
       <c r="C4">
-        <v>0.4264706822962694</v>
+        <v>0.4173025953069782</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07873904925667574</v>
+        <v>0.08263977805163059</v>
       </c>
       <c r="F4">
-        <v>5.192168969987421</v>
+        <v>5.188830604355729</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000804168293634755</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.16850934312717</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5205022490746956</v>
+        <v>2.176471799320666</v>
       </c>
       <c r="K4">
-        <v>0.06354380794352288</v>
+        <v>0.5142270571541516</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.06443962266540471</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.816389110135361</v>
+        <v>1.799607490296296</v>
       </c>
       <c r="C5">
-        <v>0.4066548888060595</v>
+        <v>0.3979106859555941</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07474200188782021</v>
+        <v>0.0785679745424801</v>
       </c>
       <c r="F5">
-        <v>4.967043209514827</v>
+        <v>4.964716219441556</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008073750091994531</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.078797140185344</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4965942287088723</v>
+        <v>2.087194114781113</v>
       </c>
       <c r="K5">
-        <v>0.05988748395174026</v>
+        <v>0.4907619384608353</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.06077203014875288</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.802133179940682</v>
+        <v>1.785601262737032</v>
       </c>
       <c r="C6">
-        <v>0.403383203877155</v>
+        <v>0.3947093276597116</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07408709890714071</v>
+        <v>0.07790051602748882</v>
       </c>
       <c r="F6">
-        <v>4.929885006549114</v>
+        <v>4.927723710339791</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008079093636460026</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.063995308385799</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4926488645978395</v>
+        <v>2.072463124123402</v>
       </c>
       <c r="K6">
-        <v>0.05929061159154125</v>
+        <v>0.4868900421585565</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.0601731608742444</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.901622457215836</v>
+        <v>1.883355583042118</v>
       </c>
       <c r="C7">
-        <v>0.4262021446674282</v>
+        <v>0.4170397792268261</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07868453209193937</v>
+        <v>0.08258426238400318</v>
       </c>
       <c r="F7">
-        <v>5.189117346958369</v>
+        <v>5.185792777828823</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008042114178349241</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.167292874337406</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5201781228982014</v>
+        <v>2.175261281615235</v>
       </c>
       <c r="K7">
-        <v>0.06349378537208406</v>
+        <v>0.5139089102076824</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.06438945684451092</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.355998252077313</v>
+        <v>2.329989729267197</v>
       </c>
       <c r="C8">
-        <v>0.5300852879545062</v>
+        <v>0.5187476323667966</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1005026937143807</v>
+        <v>0.1047608117388243</v>
       </c>
       <c r="F8">
-        <v>6.37135822527452</v>
+        <v>6.362498899532909</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007881272905980518</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.639491715069397</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6457915645954984</v>
+        <v>2.645027881790412</v>
       </c>
       <c r="K8">
-        <v>0.08381985459801733</v>
+        <v>0.6372469569678927</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.08475160111256486</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.32637068448031</v>
+        <v>3.284338269257944</v>
       </c>
       <c r="C9">
-        <v>0.7507903734643833</v>
+        <v>0.7349769728901094</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.151887543555091</v>
+        <v>0.1567397603245588</v>
       </c>
       <c r="F9">
-        <v>8.89644603703141</v>
+        <v>8.874294092608096</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007569638827896618</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.655329373410211</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9136527778839394</v>
+        <v>3.65477359767155</v>
       </c>
       <c r="K9">
-        <v>0.1336325940094794</v>
+        <v>0.9004097209959099</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.134506340124565</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.118217579487407</v>
+        <v>4.063147959930973</v>
       </c>
       <c r="C10">
-        <v>0.9302864910051198</v>
+        <v>0.9108638209785909</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1990631401994527</v>
+        <v>0.2042354046758739</v>
       </c>
       <c r="F10">
-        <v>10.96639387951063</v>
+        <v>10.93149278120728</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007337150197966534</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.496563430775666</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1.132018397454118</v>
+        <v>4.489976044526514</v>
       </c>
       <c r="K10">
-        <v>0.1811259469200133</v>
+        <v>1.114964962169381</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.1817961682797398</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.50511119858254</v>
+        <v>4.443571599903237</v>
       </c>
       <c r="C11">
-        <v>1.017886449358684</v>
+        <v>0.9966851664045748</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2239733529999377</v>
+        <v>0.2292439064340499</v>
       </c>
       <c r="F11">
-        <v>11.9829430886677</v>
+        <v>11.94102916111194</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007228806599462387</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.912728200255231</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.238673620610683</v>
+        <v>4.902776971015925</v>
       </c>
       <c r="K11">
-        <v>0.2067230425301645</v>
+        <v>1.219733735500284</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2072321077351518</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.65656033764202</v>
+        <v>4.592458917829106</v>
       </c>
       <c r="C12">
-        <v>1.05216573778074</v>
+        <v>1.030262706927999</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2340756741027725</v>
+        <v>0.2393733003139715</v>
       </c>
       <c r="F12">
-        <v>12.38199781153958</v>
+        <v>12.33717636899286</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007187198348102125</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.076664578890359</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.28041924338207</v>
+        <v>5.065311835038642</v>
       </c>
       <c r="K12">
-        <v>0.2171912875222457</v>
+        <v>1.260733288081127</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2176245982459299</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.623701898616048</v>
+        <v>4.560157890475921</v>
       </c>
       <c r="C13">
-        <v>1.044728962136162</v>
+        <v>1.022978496067424</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2318667163169117</v>
+        <v>0.2371590379260056</v>
       </c>
       <c r="F13">
-        <v>12.29536137283969</v>
+        <v>12.25117896634788</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.000719618932075608</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.041045761775763</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.271362285840908</v>
+        <v>5.030001356858349</v>
       </c>
       <c r="K13">
-        <v>0.2148982562985839</v>
+        <v>1.251838620240306</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2153486434431109</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.517464407922091</v>
+        <v>4.455716535564875</v>
       </c>
       <c r="C14">
-        <v>1.020682711747696</v>
+        <v>0.9994243230743223</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2247898362485365</v>
+        <v>0.2300628464662715</v>
       </c>
       <c r="F14">
-        <v>12.01546767373441</v>
+        <v>11.97332017015282</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007225396541567115</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.926077582226867</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.24207875705234</v>
+        <v>4.91601389619575</v>
       </c>
       <c r="K14">
-        <v>0.2075673125220696</v>
+        <v>1.223078198192781</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2080704777788025</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.453073009084051</v>
+        <v>4.392409502377063</v>
       </c>
       <c r="C15">
-        <v>1.006106681739084</v>
+        <v>0.9851457148546672</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2205484523029426</v>
+        <v>0.2258081805078973</v>
       </c>
       <c r="F15">
-        <v>11.84598002235452</v>
+        <v>11.80504322089331</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007243203835210374</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.856536556242474</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.224329229885996</v>
+        <v>4.847055503178723</v>
       </c>
       <c r="K15">
-        <v>0.2031850918067502</v>
+        <v>1.205644602015184</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2037184789494102</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.093556984291013</v>
+        <v>4.038896722268476</v>
       </c>
       <c r="C16">
-        <v>0.9247011338423476</v>
+        <v>0.9053912916003242</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1975180545492066</v>
+        <v>0.2026826978547405</v>
       </c>
       <c r="F16">
-        <v>10.90172903111892</v>
+        <v>10.86725598593699</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007344162232549286</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.470159493437166</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1.125219538848924</v>
+        <v>4.463776557631974</v>
       </c>
       <c r="K16">
-        <v>0.1795490396499453</v>
+        <v>1.108285564287371</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.1802280510528655</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.880525672760996</v>
+        <v>3.829389758020227</v>
       </c>
       <c r="C17">
-        <v>0.8764413274446099</v>
+        <v>0.8581042641543206</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1843783540208115</v>
+        <v>0.1894706905930406</v>
       </c>
       <c r="F17">
-        <v>10.34370990618945</v>
+        <v>10.31284654391135</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007405304964340094</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.242647059215898</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1.066483474098163</v>
+        <v>4.237983542845569</v>
       </c>
       <c r="K17">
-        <v>0.166193531511551</v>
+        <v>1.050578492251987</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.1669415563820076</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.760424906622461</v>
+        <v>3.711268002079919</v>
       </c>
       <c r="C18">
-        <v>0.8492245817677428</v>
+        <v>0.8314348267764444</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1771322511302991</v>
+        <v>0.1821788212618927</v>
       </c>
       <c r="F18">
-        <v>10.02955439689981</v>
+        <v>10.00065918587276</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007440244999809092</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.114824880333799</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.033366385483106</v>
+        <v>4.111095023233077</v>
       </c>
       <c r="K18">
-        <v>0.158872218166775</v>
+        <v>1.01803959596441</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.1596538771969325</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.720149568668262</v>
+        <v>3.671655294062361</v>
       </c>
       <c r="C19">
-        <v>0.8400958715030811</v>
+        <v>0.8224895385295952</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1747280149674282</v>
+        <v>0.1797584466334818</v>
       </c>
       <c r="F19">
-        <v>9.924269788423572</v>
+        <v>9.896024229926411</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007452041405058929</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.072029137051516</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1.022260080431195</v>
+        <v>4.06860681269319</v>
       </c>
       <c r="K19">
-        <v>0.1564502252328275</v>
+        <v>1.007126947584155</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1572423428550609</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.90294484588577</v>
+        <v>3.851438941722051</v>
       </c>
       <c r="C20">
-        <v>0.8815210837977077</v>
+        <v>0.8630817816435581</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1857437950695378</v>
+        <v>0.1908442798279424</v>
       </c>
       <c r="F20">
-        <v>10.4023871297457</v>
+        <v>10.3711511446588</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007398821093592104</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.266542303254852</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1.07266514216802</v>
+        <v>4.26170170090009</v>
       </c>
       <c r="K20">
-        <v>0.1675767127529877</v>
+        <v>1.056652093938425</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.1683180459939191</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.548524289885222</v>
+        <v>4.486252228718797</v>
       </c>
       <c r="C21">
-        <v>1.027713227699905</v>
+        <v>1.006311156055858</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2268486149380493</v>
+        <v>0.2321276091435678</v>
       </c>
       <c r="F21">
-        <v>12.09726414077045</v>
+        <v>12.05452657875043</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007216835436923</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.959659567301571</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.250640281590336</v>
+        <v>4.949311686168244</v>
       </c>
       <c r="K21">
-        <v>0.2096975694056677</v>
+        <v>1.231487032168971</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2101856840199847</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.000044825650093</v>
+        <v>4.930056677086156</v>
       </c>
       <c r="C22">
-        <v>1.129892752407102</v>
+        <v>1.106382853083744</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2577487798498375</v>
+        <v>0.2630820569550671</v>
       </c>
       <c r="F22">
-        <v>13.28966908327385</v>
+        <v>13.23787824916644</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007094360451557865</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.450765179498518</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.375090628955576</v>
+        <v>5.436039908751951</v>
       </c>
       <c r="K22">
-        <v>0.2419001834957992</v>
+        <v>1.353692261261912</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2421324500834601</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.755887089862824</v>
+        <v>4.690094954085623</v>
       </c>
       <c r="C23">
-        <v>1.074644694913445</v>
+        <v>1.052279340737613</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2408115125259798</v>
+        <v>0.246123210924619</v>
       </c>
       <c r="F23">
-        <v>12.64408784607264</v>
+        <v>12.59730615449064</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007160139288602319</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.184511198506499</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.307796670760041</v>
+        <v>5.17221162327607</v>
       </c>
       <c r="K23">
-        <v>0.2241971261509299</v>
+        <v>1.287618614621309</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2245765944451428</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.892801822258491</v>
+        <v>3.841463334918444</v>
       </c>
       <c r="C24">
-        <v>0.8792228977909531</v>
+        <v>0.8608298544708646</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1851255316676195</v>
+        <v>0.1902223454796932</v>
       </c>
       <c r="F24">
-        <v>10.37583865705503</v>
+        <v>10.34477146307543</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007401753095810371</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.255730096184436</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1.069868403765227</v>
+        <v>4.250969722650041</v>
       </c>
       <c r="K24">
-        <v>0.166950278765345</v>
+        <v>1.053904253382626</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.1676946557866064</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.052628640084947</v>
+        <v>3.015085197332667</v>
       </c>
       <c r="C25">
-        <v>0.6886387488024184</v>
+        <v>0.6740751592935794</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1367031138513859</v>
+        <v>0.1414100544679293</v>
       </c>
       <c r="F25">
-        <v>8.183327792070486</v>
+        <v>8.16515619233229</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007654063570699263</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.367345128248999</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.838127679832283</v>
+        <v>3.368640819018751</v>
       </c>
       <c r="K25">
-        <v>0.1186731032524175</v>
+        <v>0.8261992549398656</v>
       </c>
       <c r="L25">
+        <v>0.1195828447339102</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.455428848457188</v>
+        <v>4.741896297739345</v>
       </c>
       <c r="C2">
-        <v>0.5472382191479142</v>
+        <v>0.9234638823576802</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1112267010107111</v>
+        <v>0.03020083838924137</v>
       </c>
       <c r="F2">
-        <v>6.692581264069503</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007838122754156044</v>
+        <v>0.0008157151039315701</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.777148087795609</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6718612301484512</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09079906685208483</v>
+        <v>0.1484345420885234</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.7107491745435794</v>
+      </c>
+      <c r="N2">
+        <v>2.027580975766114</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.09688420294367</v>
+        <v>4.140620856224587</v>
       </c>
       <c r="C3">
-        <v>0.4657228577706576</v>
+        <v>0.7910472113755134</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09302469724568496</v>
+        <v>0.02727967660566577</v>
       </c>
       <c r="F3">
-        <v>5.748738491656894</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007963691217175937</v>
+        <v>0.0008274316234743819</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.399774727309307</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5728949139734709</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0738980391553099</v>
+        <v>0.1343829440500741</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.623926914523814</v>
+      </c>
+      <c r="N3">
+        <v>2.01816173420039</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.884506855735879</v>
+        <v>3.781794350600535</v>
       </c>
       <c r="C4">
-        <v>0.4173025953069782</v>
+        <v>0.7117538396141185</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08263977805163059</v>
+        <v>0.02552638801159368</v>
       </c>
       <c r="F4">
-        <v>5.188830604355729</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.000804168293634755</v>
+        <v>0.0008347738068196505</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.176471799320666</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5142270571541516</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06443962266540471</v>
+        <v>0.126047315643639</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.5721542996019124</v>
+      </c>
+      <c r="N4">
+        <v>2.015219835266748</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.799607490296296</v>
+        <v>3.637831070972766</v>
       </c>
       <c r="C5">
-        <v>0.3979106859555941</v>
+        <v>0.6798677226474865</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0785679745424801</v>
+        <v>0.02481992074277528</v>
       </c>
       <c r="F5">
-        <v>4.964716219441556</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008073750091994531</v>
+        <v>0.0008378065121169123</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.087194114781113</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4907619384608353</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06077203014875288</v>
+        <v>0.1227161278387499</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5513936724484694</v>
+      </c>
+      <c r="N5">
+        <v>2.014675177061463</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.785601262737032</v>
+        <v>3.614053314387775</v>
       </c>
       <c r="C6">
-        <v>0.3947093276597116</v>
+        <v>0.6745966725976018</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07790051602748882</v>
+        <v>0.02470303897147375</v>
       </c>
       <c r="F6">
-        <v>4.927723710339791</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0008079093636460026</v>
+        <v>0.0008383126430997017</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.072463124123402</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4868900421585565</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0601731608742444</v>
+        <v>0.1221667386381569</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5479654066779176</v>
+      </c>
+      <c r="N6">
+        <v>2.014622605315537</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.883355583042118</v>
+        <v>3.779844082259558</v>
       </c>
       <c r="C7">
-        <v>0.4170397792268261</v>
+        <v>0.7113221833365628</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08258426238400318</v>
+        <v>0.0255168305302842</v>
       </c>
       <c r="F7">
-        <v>5.185792777828823</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0008042114178349241</v>
+        <v>0.000834814537803983</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.175261281615235</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5139089102076824</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06438945684451092</v>
+        <v>0.1260021340025546</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5718730107865326</v>
+      </c>
+      <c r="N7">
+        <v>2.015209916102009</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.329989729267197</v>
+        <v>4.532207583571164</v>
       </c>
       <c r="C8">
-        <v>0.5187476323667966</v>
+        <v>0.8773387203903553</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1047608117388243</v>
+        <v>0.02918388918446624</v>
       </c>
       <c r="F8">
-        <v>6.362498899532909</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007881272905980518</v>
+        <v>0.0008197263916075933</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.645027881790412</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6372469569678927</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08475160111256486</v>
+        <v>0.1435239584154715</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.6804625489502243</v>
+      </c>
+      <c r="N8">
+        <v>2.023705019741911</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.284338269257944</v>
+        <v>6.107585014894937</v>
       </c>
       <c r="C9">
-        <v>0.7349769728901094</v>
+        <v>1.222970459824637</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1567397603245588</v>
+        <v>0.03680707487848167</v>
       </c>
       <c r="F9">
-        <v>8.874294092608096</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007569638827896618</v>
+        <v>0.0007911369490769529</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.65477359767155</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9004097209959099</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.134506340124565</v>
+        <v>0.1806044518065733</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.9081493244651995</v>
+      </c>
+      <c r="N9">
+        <v>2.066028140922427</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.063147959930973</v>
+        <v>7.355138205981405</v>
       </c>
       <c r="C10">
-        <v>0.9108638209785909</v>
+        <v>1.495926567912761</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2042354046758739</v>
+        <v>0.04285932946350179</v>
       </c>
       <c r="F10">
-        <v>10.93149278120728</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.0007337150197966534</v>
+        <v>0.0007704515587211594</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.489976044526514</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.114964962169381</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1817961682797398</v>
+        <v>0.2101608336248546</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.088592631433137</v>
+      </c>
+      <c r="N10">
+        <v>2.117867156321125</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.443571599903237</v>
+        <v>7.95031426325221</v>
       </c>
       <c r="C11">
-        <v>0.9966851664045748</v>
+        <v>1.626121721413256</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2292439064340499</v>
+        <v>0.04576439960415613</v>
       </c>
       <c r="F11">
-        <v>11.94102916111194</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007228806599462387</v>
+        <v>0.0007610310140823086</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.902776971015925</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.219733735500284</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2072321077351518</v>
+        <v>0.2242883904724238</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.174690836193847</v>
+      </c>
+      <c r="N11">
+        <v>2.147366099492103</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.592458917829106</v>
+        <v>8.180499202716362</v>
       </c>
       <c r="C12">
-        <v>1.030262706927999</v>
+        <v>1.676485831521745</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2393733003139715</v>
+        <v>0.04689200347838707</v>
       </c>
       <c r="F12">
-        <v>12.33717636899286</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007187198348102125</v>
+        <v>0.0007574540097885496</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.065311835038642</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.260733288081127</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2176245982459299</v>
+        <v>0.2297545150019147</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.207989547695902</v>
+      </c>
+      <c r="N12">
+        <v>2.159533416159974</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.560157890475921</v>
+        <v>8.130696147990534</v>
       </c>
       <c r="C13">
-        <v>1.022978496067424</v>
+        <v>1.665588247171399</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2371590379260056</v>
+        <v>0.046647826106339</v>
       </c>
       <c r="F13">
-        <v>12.25117896634788</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.000719618932075608</v>
+        <v>0.0007582249570188662</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.030001356858349</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.251838620240306</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2153486434431109</v>
+        <v>0.2285717867130614</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.200785029324763</v>
+      </c>
+      <c r="N13">
+        <v>2.156866007460735</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.455716535564875</v>
+        <v>7.969150108407518</v>
       </c>
       <c r="C14">
-        <v>0.9994243230743223</v>
+        <v>1.630242662325372</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2300628464662715</v>
+        <v>0.04585657980888946</v>
       </c>
       <c r="F14">
-        <v>11.97332017015282</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007225396541567115</v>
+        <v>0.0007607369772658847</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.91601389619575</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.223078198192781</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2080704777788025</v>
+        <v>0.2247356439626742</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.177415651024177</v>
+      </c>
+      <c r="N14">
+        <v>2.14834619933302</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.392409502377063</v>
+        <v>7.870851494592046</v>
       </c>
       <c r="C15">
-        <v>0.9851457148546672</v>
+        <v>1.608737245921247</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2258081805078973</v>
+        <v>0.04537569167877109</v>
       </c>
       <c r="F15">
-        <v>11.80504322089331</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007243203835210374</v>
+        <v>0.0007622741382704456</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.847055503178723</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.205644602015184</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2037184789494102</v>
+        <v>0.222401643240417</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.163195655791711</v>
+      </c>
+      <c r="N15">
+        <v>2.143262182493629</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.038896722268476</v>
+        <v>7.316865818033591</v>
       </c>
       <c r="C16">
-        <v>0.9053912916003242</v>
+        <v>1.487555122251024</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2026826978547405</v>
+        <v>0.04267299062539465</v>
       </c>
       <c r="F16">
-        <v>10.86725598593699</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007344162232549286</v>
+        <v>0.0007710663396264776</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.463776557631974</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.108285564287371</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1802280510528655</v>
+        <v>0.2092527758960614</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.083056267480146</v>
+      </c>
+      <c r="N16">
+        <v>2.116070242273821</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.829389758020227</v>
+        <v>6.984638757138953</v>
       </c>
       <c r="C17">
-        <v>0.8581042641543206</v>
+        <v>1.4148847812545</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1894706905930406</v>
+        <v>0.04105754454623067</v>
       </c>
       <c r="F17">
-        <v>10.31284654391135</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007405304964340094</v>
+        <v>0.0007764520276440923</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.237983542845569</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.050578492251987</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1669415563820076</v>
+        <v>0.2013730659717226</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.034998602503009</v>
+      </c>
+      <c r="N17">
+        <v>2.100999756546173</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.711268002079919</v>
+        <v>6.796096116735214</v>
       </c>
       <c r="C18">
-        <v>0.8314348267764444</v>
+        <v>1.373640236479616</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1821788212618927</v>
+        <v>0.04014227527695091</v>
       </c>
       <c r="F18">
-        <v>10.00065918587276</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.0007440244999809092</v>
+        <v>0.0007795492950191706</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.111095023233077</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.01803959596441</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1596538771969325</v>
+        <v>0.1969038136548704</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.007726663168633</v>
+      </c>
+      <c r="N18">
+        <v>2.092878383822665</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.671655294062361</v>
+        <v>6.732673279071662</v>
       </c>
       <c r="C19">
-        <v>0.8224895385295952</v>
+        <v>1.35976525343267</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1797584466334818</v>
+        <v>0.03983461284473577</v>
       </c>
       <c r="F19">
-        <v>9.896024229926411</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007452041405058929</v>
+        <v>0.0007805981246531638</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.06860681269319</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.007126947584155</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1572423428550609</v>
+        <v>0.1954009099988525</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9985530785058785</v>
+      </c>
+      <c r="N19">
+        <v>2.090218528544341</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.851438941722051</v>
+        <v>7.019735935576477</v>
       </c>
       <c r="C20">
-        <v>0.8630817816435581</v>
+        <v>1.422562080492128</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1908442798279424</v>
+        <v>0.04122803636688666</v>
       </c>
       <c r="F20">
-        <v>10.3711511446588</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007398821093592104</v>
+        <v>0.0007758788112088059</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.26170170090009</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.056652093938425</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1683180459939191</v>
+        <v>0.2022052380208237</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.040075389851751</v>
+      </c>
+      <c r="N20">
+        <v>2.102546477425477</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.486252228718797</v>
+        <v>8.016462301130787</v>
       </c>
       <c r="C21">
-        <v>1.006311156055858</v>
+        <v>1.640593940550218</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2321276091435678</v>
+        <v>0.04608818978065621</v>
       </c>
       <c r="F21">
-        <v>12.05452657875043</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007216835436923</v>
+        <v>0.0007599994704030113</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.949311686168244</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.231487032168971</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2101856840199847</v>
+        <v>0.2258590928674664</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.184259882364941</v>
+      </c>
+      <c r="N21">
+        <v>2.15082031896074</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.930056677086156</v>
+        <v>8.696394608094124</v>
       </c>
       <c r="C22">
-        <v>1.106382853083744</v>
+        <v>1.789401849779949</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2630820569550671</v>
+        <v>0.04942857300073555</v>
       </c>
       <c r="F22">
-        <v>13.23787824916644</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.0007094360451557865</v>
+        <v>0.0007495601834449204</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.436039908751951</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.353692261261912</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2421324500834601</v>
+        <v>0.2420073686809445</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.282617296511873</v>
+      </c>
+      <c r="N22">
+        <v>2.188269368374421</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.690094954085623</v>
+        <v>8.330575271482758</v>
       </c>
       <c r="C23">
-        <v>1.052279340737613</v>
+        <v>1.709327381849391</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.246123210924619</v>
+        <v>0.04762852352922664</v>
       </c>
       <c r="F23">
-        <v>12.59730615449064</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0007160139288602319</v>
+        <v>0.000755140541382025</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.17221162327607</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.287618614621309</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2245765944451428</v>
+        <v>0.2333187227923332</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.229699441449071</v>
+      </c>
+      <c r="N23">
+        <v>2.16768630970347</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.841463334918444</v>
+        <v>7.003860901809048</v>
       </c>
       <c r="C24">
-        <v>0.8608298544708646</v>
+        <v>1.41908952251498</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1902223454796932</v>
+        <v>0.04115091546096039</v>
       </c>
       <c r="F24">
-        <v>10.34477146307543</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007401753095810371</v>
+        <v>0.0007761379587137789</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.250969722650041</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.053904253382626</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1676946557866064</v>
+        <v>0.2018288246803621</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.037779070743724</v>
+      </c>
+      <c r="N24">
+        <v>2.101845524738764</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.015085197332667</v>
+        <v>5.667961528665103</v>
       </c>
       <c r="C25">
-        <v>0.6740751592935794</v>
+        <v>1.126684373136243</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1414100544679293</v>
+        <v>0.03468112522613964</v>
       </c>
       <c r="F25">
-        <v>8.16515619233229</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.0007654063570699263</v>
+        <v>0.0007987914967549244</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.368640819018751</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8261992549398656</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1195828447339102</v>
+        <v>0.1702202558088572</v>
       </c>
       <c r="M25">
+        <v>0.8445836636919424</v>
+      </c>
+      <c r="N25">
+        <v>2.051352965487169</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.741896297739345</v>
+        <v>1.833725098921747</v>
       </c>
       <c r="C2">
-        <v>0.9234638823576802</v>
+        <v>0.09764267959957351</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03020083838924137</v>
+        <v>0.02919684699475233</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.424614436737684</v>
       </c>
       <c r="G2">
-        <v>0.0008157151039315701</v>
+        <v>0.000855498901601226</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1197384124713992</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.595875370434413</v>
       </c>
       <c r="L2">
-        <v>0.1484345420885234</v>
+        <v>0.2116203858093257</v>
       </c>
       <c r="M2">
-        <v>0.7107491745435794</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.027580975766114</v>
+        <v>2.319893115521865</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.140620856224587</v>
+        <v>1.63057741704003</v>
       </c>
       <c r="C3">
-        <v>0.7910472113755134</v>
+        <v>0.08407236571397902</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02727967660566577</v>
+        <v>0.02687472009236203</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>2.286339232012807</v>
       </c>
       <c r="G3">
-        <v>0.0008274316234743819</v>
+        <v>0.0008625818862267986</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1225672365208688</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.407128767020254</v>
       </c>
       <c r="L3">
-        <v>0.1343829440500741</v>
+        <v>0.187716195904585</v>
       </c>
       <c r="M3">
-        <v>0.623926914523814</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.01816173420039</v>
+        <v>2.334106060337575</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.781794350600535</v>
+        <v>1.508307015706947</v>
       </c>
       <c r="C4">
-        <v>0.7117538396141185</v>
+        <v>0.07586515348442902</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02552638801159368</v>
+        <v>0.02547764941786745</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>2.204855728217439</v>
       </c>
       <c r="G4">
-        <v>0.0008347738068196505</v>
+        <v>0.0008670590578583888</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1243702740731916</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.2934141273862</v>
       </c>
       <c r="L4">
-        <v>0.126047315643639</v>
+        <v>0.1732769526110189</v>
       </c>
       <c r="M4">
-        <v>0.5721542996019124</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.015219835266748</v>
+        <v>2.344932835998137</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.637831070972766</v>
+        <v>1.459042269119919</v>
       </c>
       <c r="C5">
-        <v>0.6798677226474865</v>
+        <v>0.07254715318589433</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02481992074277528</v>
+        <v>0.02491519673718301</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>2.17245242044234</v>
       </c>
       <c r="G5">
-        <v>0.0008378065121169123</v>
+        <v>0.0008689167984879871</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1251213196934806</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.247566031880609</v>
       </c>
       <c r="L5">
-        <v>0.1227161278387499</v>
+        <v>0.1674475263965078</v>
       </c>
       <c r="M5">
-        <v>0.5513936724484694</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.014675177061463</v>
+        <v>2.349850021286898</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.614053314387775</v>
+        <v>1.450894186758148</v>
       </c>
       <c r="C6">
-        <v>0.6745966725976018</v>
+        <v>0.071997665490656</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02470303897147375</v>
+        <v>0.02482220651991796</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>2.167118696796777</v>
       </c>
       <c r="G6">
-        <v>0.0008383126430997017</v>
+        <v>0.0008692273121910711</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1252470051569379</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.239981121955651</v>
       </c>
       <c r="L6">
-        <v>0.1221667386381569</v>
+        <v>0.1664827125717565</v>
       </c>
       <c r="M6">
-        <v>0.5479654066779176</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.014622605315537</v>
+        <v>2.350696390270627</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.779844082259558</v>
+        <v>1.507640414541612</v>
       </c>
       <c r="C7">
-        <v>0.7113221833365628</v>
+        <v>0.07582030470072709</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0255168305302842</v>
+        <v>0.02547003664384384</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>2.204415552398359</v>
       </c>
       <c r="G7">
-        <v>0.000834814537803983</v>
+        <v>0.0008670839760783587</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1243803373844568</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.292793884571637</v>
       </c>
       <c r="L7">
-        <v>0.1260021340025546</v>
+        <v>0.1731981201102286</v>
       </c>
       <c r="M7">
-        <v>0.5718730107865326</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.015209916102009</v>
+        <v>2.344997134431168</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.532207583571164</v>
+        <v>1.763132363871819</v>
       </c>
       <c r="C8">
-        <v>0.8773387203903553</v>
+        <v>0.09293459818042038</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02918388918446624</v>
+        <v>0.02838999186748481</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>2.376191778187007</v>
       </c>
       <c r="G8">
-        <v>0.0008197263916075933</v>
+        <v>0.0008579151449813673</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1206998537994277</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.530308942664277</v>
       </c>
       <c r="L8">
-        <v>0.1435239584154715</v>
+        <v>0.2033255919504313</v>
       </c>
       <c r="M8">
-        <v>0.6804625489502243</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>2.023705019741911</v>
+        <v>2.324343606579518</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.107585014894937</v>
+        <v>2.286550527622296</v>
       </c>
       <c r="C9">
-        <v>1.222970459824637</v>
+        <v>0.1277321716696349</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03680707487848167</v>
+        <v>0.03436170272432548</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>2.742993955055383</v>
       </c>
       <c r="G9">
-        <v>0.0007911369490769529</v>
+        <v>0.0008409023337202875</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1140240255190008</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.016096007756573</v>
       </c>
       <c r="L9">
-        <v>0.1806044518065733</v>
+        <v>0.2645485327175834</v>
       </c>
       <c r="M9">
-        <v>0.9081493244651995</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>2.066028140922427</v>
+        <v>2.301626116452155</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.355138205981405</v>
+        <v>2.689137174941322</v>
       </c>
       <c r="C10">
-        <v>1.495926567912761</v>
+        <v>0.1544296698990024</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04285932946350179</v>
+        <v>0.03892620670569613</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>3.035061273526139</v>
       </c>
       <c r="G10">
-        <v>0.0007704515587211594</v>
+        <v>0.000828916970601939</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.109476166768907</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.389429214572743</v>
       </c>
       <c r="L10">
-        <v>0.2101608336248546</v>
+        <v>0.3112240406168922</v>
       </c>
       <c r="M10">
-        <v>1.088592631433137</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2.117867156321125</v>
+        <v>2.297491057335293</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.95031426325221</v>
+        <v>2.877290156151389</v>
       </c>
       <c r="C11">
-        <v>1.626121721413256</v>
+        <v>0.1669163971168217</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04576439960415613</v>
+        <v>0.04104791448155609</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>3.173906835312607</v>
       </c>
       <c r="G11">
-        <v>0.0007610310140823086</v>
+        <v>0.0008235574831249945</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1074918213230802</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.563888779381642</v>
       </c>
       <c r="L11">
-        <v>0.2242883904724238</v>
+        <v>0.3329219710242484</v>
       </c>
       <c r="M11">
-        <v>1.174690836193847</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2.147366099492103</v>
+        <v>2.298765814904414</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.180499202716362</v>
+        <v>2.949361119485445</v>
       </c>
       <c r="C12">
-        <v>1.676485831521745</v>
+        <v>0.1717029854188468</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04689200347838707</v>
+        <v>0.04185847653983998</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>3.227444133536864</v>
       </c>
       <c r="G12">
-        <v>0.0007574540097885496</v>
+        <v>0.0008215396052536045</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1067532638210906</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.630715763837344</v>
       </c>
       <c r="L12">
-        <v>0.2297545150019147</v>
+        <v>0.3412140893208289</v>
       </c>
       <c r="M12">
-        <v>1.207989547695902</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2.159533416159974</v>
+        <v>2.299742821065905</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.130696147990534</v>
+        <v>2.93380109661797</v>
       </c>
       <c r="C13">
-        <v>1.665588247171399</v>
+        <v>0.1706693682258447</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.046647826106339</v>
+        <v>0.0416835806944853</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>3.215869553481355</v>
       </c>
       <c r="G13">
-        <v>0.0007582249570188662</v>
+        <v>0.0008219737022481457</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1069117403552688</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.616287781952565</v>
       </c>
       <c r="L13">
-        <v>0.2285717867130614</v>
+        <v>0.3394247236287526</v>
       </c>
       <c r="M13">
-        <v>1.200785029324763</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2.156866007460735</v>
+        <v>2.299509729562359</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.969150108407518</v>
+        <v>2.883202399845345</v>
       </c>
       <c r="C14">
-        <v>1.630242662325372</v>
+        <v>0.1673089723555421</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04585657980888946</v>
+        <v>0.04111445359539445</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>3.178291546104447</v>
       </c>
       <c r="G14">
-        <v>0.0007607369772658847</v>
+        <v>0.0008233912480350436</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1074307972988713</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.569370790083809</v>
       </c>
       <c r="L14">
-        <v>0.2247356439626742</v>
+        <v>0.3336026007841042</v>
       </c>
       <c r="M14">
-        <v>1.177415651024177</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2.14834619933302</v>
+        <v>2.2988360398937</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.870851494592046</v>
+        <v>2.852319385278577</v>
       </c>
       <c r="C15">
-        <v>1.608737245921247</v>
+        <v>0.1652584879555974</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04537569167877109</v>
+        <v>0.0407667926448152</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>3.15540200686695</v>
       </c>
       <c r="G15">
-        <v>0.0007622741382704456</v>
+        <v>0.0008242609991506874</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1077504340101498</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.540735202785527</v>
       </c>
       <c r="L15">
-        <v>0.222401643240417</v>
+        <v>0.3300464989454639</v>
       </c>
       <c r="M15">
-        <v>1.163195655791711</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.143262182493629</v>
+        <v>2.298489032760017</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.316865818033591</v>
+        <v>2.676950186054398</v>
       </c>
       <c r="C16">
-        <v>1.487555122251024</v>
+        <v>0.1536212563156312</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04267299062539465</v>
+        <v>0.03878850986067306</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>3.026116024839496</v>
       </c>
       <c r="G16">
-        <v>0.0007710663396264776</v>
+        <v>0.0008292689508173997</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1096076079876482</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.37812909736104</v>
       </c>
       <c r="L16">
-        <v>0.2092527758960614</v>
+        <v>0.3098161127109478</v>
       </c>
       <c r="M16">
-        <v>1.083056267480146</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>2.116070242273821</v>
+        <v>2.29747461355791</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.984638757138953</v>
+        <v>2.570719385101313</v>
       </c>
       <c r="C17">
-        <v>1.4148847812545</v>
+        <v>0.1465758250779743</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04105754454623067</v>
+        <v>0.03758690994699343</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>2.948402996071479</v>
       </c>
       <c r="G17">
-        <v>0.0007764520276440923</v>
+        <v>0.0008323637635833606</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1107690470687412</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.279627061216019</v>
       </c>
       <c r="L17">
-        <v>0.2013730659717226</v>
+        <v>0.2975304633175284</v>
       </c>
       <c r="M17">
-        <v>1.034998602503009</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2.100999756546173</v>
+        <v>2.297688034370495</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.796096116735214</v>
+        <v>2.510083604513397</v>
       </c>
       <c r="C18">
-        <v>1.373640236479616</v>
+        <v>0.1425550661156478</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04014227527695091</v>
+        <v>0.0369000050900663</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.904261123813342</v>
       </c>
       <c r="G18">
-        <v>0.0007795492950191706</v>
+        <v>0.0008341526551876609</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1114449806958149</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.223400535799215</v>
       </c>
       <c r="L18">
-        <v>0.1969038136548704</v>
+        <v>0.2905072816707701</v>
       </c>
       <c r="M18">
-        <v>1.007726663168633</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>2.092878383822665</v>
+        <v>2.298105160783962</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.732673279071662</v>
+        <v>2.489630405334253</v>
       </c>
       <c r="C19">
-        <v>1.35976525343267</v>
+        <v>0.1411988744768991</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03983461284473577</v>
+        <v>0.03666813883459419</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.889408183203443</v>
       </c>
       <c r="G19">
-        <v>0.0007805981246531638</v>
+        <v>0.0008347599096479067</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1116751775209295</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.204434121469689</v>
       </c>
       <c r="L19">
-        <v>0.1954009099988525</v>
+        <v>0.2881365206180817</v>
       </c>
       <c r="M19">
-        <v>0.9985530785058785</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2.090218528544341</v>
+        <v>2.298295787983676</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.019735935576477</v>
+        <v>2.581978977042183</v>
       </c>
       <c r="C20">
-        <v>1.422562080492128</v>
+        <v>0.1473224924410346</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04122803636688666</v>
+        <v>0.03771438098436342</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>2.956617387760332</v>
       </c>
       <c r="G20">
-        <v>0.0007758788112088059</v>
+        <v>0.0008320334125520923</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1106445869080694</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.290067673705124</v>
       </c>
       <c r="L20">
-        <v>0.2022052380208237</v>
+        <v>0.2988337603082982</v>
       </c>
       <c r="M20">
-        <v>1.040075389851751</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.102546477425477</v>
+        <v>2.297634569540975</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.016462301130787</v>
+        <v>2.898041314288605</v>
       </c>
       <c r="C21">
-        <v>1.640593940550218</v>
+        <v>0.1682943475688319</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04608818978065621</v>
+        <v>0.04128142174732119</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>3.189302235132402</v>
       </c>
       <c r="G21">
-        <v>0.0007599994704030113</v>
+        <v>0.000822974578786678</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1072779821149048</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.583129913826298</v>
       </c>
       <c r="L21">
-        <v>0.2258590928674664</v>
+        <v>0.3353105743317002</v>
       </c>
       <c r="M21">
-        <v>1.184259882364941</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>2.15082031896074</v>
+        <v>2.299020159454074</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.696394608094124</v>
+        <v>3.109449296828302</v>
       </c>
       <c r="C22">
-        <v>1.789401849779949</v>
+        <v>0.1823444759581605</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04942857300073555</v>
+        <v>0.04365449865671067</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>3.34702168056134</v>
       </c>
       <c r="G22">
-        <v>0.0007495601834449204</v>
+        <v>0.0008171210650735894</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.105153146438294</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.779163005775217</v>
       </c>
       <c r="L22">
-        <v>0.2420073686809445</v>
+        <v>0.3595955238038187</v>
       </c>
       <c r="M22">
-        <v>1.282617296511873</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2.188269368374421</v>
+        <v>2.30282888390451</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.330575271482758</v>
+        <v>2.996137697027848</v>
       </c>
       <c r="C23">
-        <v>1.709327381849391</v>
+        <v>0.1748109534009643</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04762852352922664</v>
+        <v>0.04238390187756025</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>3.262291642684801</v>
       </c>
       <c r="G23">
-        <v>0.000755140541382025</v>
+        <v>0.0008202396723632307</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1062800427726209</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.674089722975339</v>
       </c>
       <c r="L23">
-        <v>0.2333187227923332</v>
+        <v>0.3465903386594817</v>
       </c>
       <c r="M23">
-        <v>1.229699441449071</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2.16768630970347</v>
+        <v>2.300515891095372</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.003860901809048</v>
+        <v>2.576887159580565</v>
       </c>
       <c r="C24">
-        <v>1.41908952251498</v>
+        <v>0.1469848321161464</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04115091546096039</v>
+        <v>0.03765673919163604</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.952901997934191</v>
       </c>
       <c r="G24">
-        <v>0.0007761379587137789</v>
+        <v>0.0008321827340574413</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1107008298375085</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.285346222881429</v>
       </c>
       <c r="L24">
-        <v>0.2018288246803621</v>
+        <v>0.2982444157899948</v>
       </c>
       <c r="M24">
-        <v>1.037779070743724</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.101845524738764</v>
+        <v>2.297657826919135</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.667961528665103</v>
+        <v>2.142126623097624</v>
       </c>
       <c r="C25">
-        <v>1.126684373136243</v>
+        <v>0.1181494414284998</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03468112522613964</v>
+        <v>0.03271721587918108</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>2.640135700935545</v>
       </c>
       <c r="G25">
-        <v>0.0007987914967549244</v>
+        <v>0.0008454086326536991</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1157694982975368</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.882122530065061</v>
       </c>
       <c r="L25">
-        <v>0.1702202558088572</v>
+        <v>0.2477185879288868</v>
       </c>
       <c r="M25">
-        <v>0.8445836636919424</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2.051352965487169</v>
+        <v>2.305700996343376</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.833725098921747</v>
+        <v>1.909168386128414</v>
       </c>
       <c r="C2">
-        <v>0.09764267959957351</v>
+        <v>0.03105757396912168</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02919684699475233</v>
+        <v>0.07852987395450661</v>
       </c>
       <c r="F2">
-        <v>2.424614436737684</v>
+        <v>3.742124059222519</v>
       </c>
       <c r="G2">
-        <v>0.000855498901601226</v>
+        <v>0.002618631557067928</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1197384124713992</v>
+        <v>0.2199797100253313</v>
       </c>
       <c r="K2">
-        <v>1.595875370434413</v>
+        <v>1.363528138879758</v>
       </c>
       <c r="L2">
-        <v>0.2116203858093257</v>
+        <v>0.2877771645403016</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.319893115521865</v>
+        <v>3.858137254446149</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.63057741704003</v>
+        <v>1.868268787627954</v>
       </c>
       <c r="C3">
-        <v>0.08407236571397902</v>
+        <v>0.02705245307993209</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02687472009236203</v>
+        <v>0.07847626374588224</v>
       </c>
       <c r="F3">
-        <v>2.286339232012807</v>
+        <v>3.72276296164921</v>
       </c>
       <c r="G3">
-        <v>0.0008625818862267986</v>
+        <v>0.002623036941766184</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1225672365208688</v>
+        <v>0.2207590449109098</v>
       </c>
       <c r="K3">
-        <v>1.407128767020254</v>
+        <v>1.322264614845722</v>
       </c>
       <c r="L3">
-        <v>0.187716195904585</v>
+        <v>0.2839071752102456</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.334106060337575</v>
+        <v>3.865879027646415</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.508307015706947</v>
+        <v>1.84422793003165</v>
       </c>
       <c r="C4">
-        <v>0.07586515348442902</v>
+        <v>0.02458985849845874</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02547764941786745</v>
+        <v>0.07847429984379239</v>
       </c>
       <c r="F4">
-        <v>2.204855728217439</v>
+        <v>3.712388858739118</v>
       </c>
       <c r="G4">
-        <v>0.0008670590578583888</v>
+        <v>0.002625885012283175</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1243702740731916</v>
+        <v>0.2212656576236984</v>
       </c>
       <c r="K4">
-        <v>1.2934141273862</v>
+        <v>1.297738820828926</v>
       </c>
       <c r="L4">
-        <v>0.1732769526110189</v>
+        <v>0.2816884988424917</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.344932835998137</v>
+        <v>3.871439607836891</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.459042269119919</v>
+        <v>1.834700585638245</v>
       </c>
       <c r="C5">
-        <v>0.07254715318589433</v>
+        <v>0.02358537901130831</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02491519673718301</v>
+        <v>0.07848131024403671</v>
       </c>
       <c r="F5">
-        <v>2.17245242044234</v>
+        <v>3.708541910237088</v>
       </c>
       <c r="G5">
-        <v>0.0008689167984879871</v>
+        <v>0.002627081736213858</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1251213196934806</v>
+        <v>0.2214791720152061</v>
       </c>
       <c r="K5">
-        <v>1.247566031880609</v>
+        <v>1.287947894092923</v>
       </c>
       <c r="L5">
-        <v>0.1674475263965078</v>
+        <v>0.2808240558563355</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.349850021286898</v>
+        <v>3.873908350958061</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.450894186758148</v>
+        <v>1.833134855451192</v>
       </c>
       <c r="C6">
-        <v>0.071997665490656</v>
+        <v>0.02341852586688731</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02482220651991796</v>
+        <v>0.0784829468698014</v>
       </c>
       <c r="F6">
-        <v>2.167118696796777</v>
+        <v>3.707926112482255</v>
       </c>
       <c r="G6">
-        <v>0.0008692273121910711</v>
+        <v>0.002627282635635386</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1252470051569379</v>
+        <v>0.2215150526703979</v>
       </c>
       <c r="K6">
-        <v>1.239981121955651</v>
+        <v>1.286334405712637</v>
       </c>
       <c r="L6">
-        <v>0.1664827125717565</v>
+        <v>0.2806829149873664</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.350696390270627</v>
+        <v>3.874330524669034</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.507640414541612</v>
+        <v>1.844098349705916</v>
       </c>
       <c r="C7">
-        <v>0.07582030470072709</v>
+        <v>0.02457631570862873</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02547003664384384</v>
+        <v>0.07847436272648523</v>
       </c>
       <c r="F7">
-        <v>2.204415552398359</v>
+        <v>3.712335436554923</v>
       </c>
       <c r="G7">
-        <v>0.0008670839760783587</v>
+        <v>0.002625901005481355</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1243803373844568</v>
+        <v>0.2212685085454336</v>
       </c>
       <c r="K7">
-        <v>1.292793884571637</v>
+        <v>1.297605953118762</v>
       </c>
       <c r="L7">
-        <v>0.1731981201102286</v>
+        <v>0.2816766798713317</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.344997134431168</v>
+        <v>3.871472081470941</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.763132363871819</v>
+        <v>1.894843773846816</v>
       </c>
       <c r="C8">
-        <v>0.09293459818042038</v>
+        <v>0.02967726648671487</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02838999186748481</v>
+        <v>0.07850498101485393</v>
       </c>
       <c r="F8">
-        <v>2.376191778187007</v>
+        <v>3.735134142287379</v>
       </c>
       <c r="G8">
-        <v>0.0008579151449813673</v>
+        <v>0.002620120894073119</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1206998537994277</v>
+        <v>0.2202425930644338</v>
       </c>
       <c r="K8">
-        <v>1.530308942664277</v>
+        <v>1.349132189209115</v>
       </c>
       <c r="L8">
-        <v>0.2033255919504313</v>
+        <v>0.2864101447966192</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.324343606579518</v>
+        <v>3.860638986865524</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.286550527622296</v>
+        <v>2.002865838941091</v>
       </c>
       <c r="C9">
-        <v>0.1277321716696349</v>
+        <v>0.03965741933733113</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03436170272432548</v>
+        <v>0.07880950553491495</v>
       </c>
       <c r="F9">
-        <v>2.742993955055383</v>
+        <v>3.791861458883417</v>
       </c>
       <c r="G9">
-        <v>0.0008409023337202875</v>
+        <v>0.002609916582561193</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1140240255190008</v>
+        <v>0.2184536995451793</v>
       </c>
       <c r="K9">
-        <v>2.016096007756573</v>
+        <v>1.456619495546363</v>
       </c>
       <c r="L9">
-        <v>0.2645485327175834</v>
+        <v>0.2969397351569967</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.301626116452155</v>
+        <v>3.845808985730997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.689137174941322</v>
+        <v>2.087439931090387</v>
       </c>
       <c r="C10">
-        <v>0.1544296698990024</v>
+        <v>0.04698275735474056</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03892620670569613</v>
+        <v>0.07918090734951555</v>
       </c>
       <c r="F10">
-        <v>3.035061273526139</v>
+        <v>3.840887715410361</v>
       </c>
       <c r="G10">
-        <v>0.000828916970601939</v>
+        <v>0.002603101161769095</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.109476166768907</v>
+        <v>0.2172752505033095</v>
       </c>
       <c r="K10">
-        <v>2.389429214572743</v>
+        <v>1.539552273711934</v>
       </c>
       <c r="L10">
-        <v>0.3112240406168922</v>
+        <v>0.3054341633006743</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.297491057335293</v>
+        <v>3.838838336938664</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.877290156151389</v>
+        <v>2.127051900416802</v>
       </c>
       <c r="C11">
-        <v>0.1669163971168217</v>
+        <v>0.05031521922722959</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04104791448155609</v>
+        <v>0.07938165191775504</v>
       </c>
       <c r="F11">
-        <v>3.173906835312607</v>
+        <v>3.864792115123549</v>
       </c>
       <c r="G11">
-        <v>0.0008235574831249945</v>
+        <v>0.002600147078683519</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1074918213230802</v>
+        <v>0.2167686361664813</v>
       </c>
       <c r="K11">
-        <v>2.563888779381642</v>
+        <v>1.578148747993367</v>
       </c>
       <c r="L11">
-        <v>0.3329219710242484</v>
+        <v>0.309462837719451</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.298765814904414</v>
+        <v>3.836522900695272</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.949361119485445</v>
+        <v>2.142215912978259</v>
       </c>
       <c r="C12">
-        <v>0.1717029854188468</v>
+        <v>0.05157726315817968</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04185847653983998</v>
+        <v>0.07946221519727104</v>
       </c>
       <c r="F12">
-        <v>3.227444133536864</v>
+        <v>3.874074742701936</v>
       </c>
       <c r="G12">
-        <v>0.0008215396052536045</v>
+        <v>0.002599049358979161</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1067532638210906</v>
+        <v>0.2165810333071896</v>
       </c>
       <c r="K12">
-        <v>2.630715763837344</v>
+        <v>1.592889759469188</v>
       </c>
       <c r="L12">
-        <v>0.3412140893208289</v>
+        <v>0.3110119966566884</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.299742821065905</v>
+        <v>3.835769400000302</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.93380109661797</v>
+        <v>2.138942784526307</v>
       </c>
       <c r="C13">
-        <v>0.1706693682258447</v>
+        <v>0.0513054528832555</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0416835806944853</v>
+        <v>0.07944466269530182</v>
       </c>
       <c r="F13">
-        <v>3.215869553481355</v>
+        <v>3.87206530619352</v>
       </c>
       <c r="G13">
-        <v>0.0008219737022481457</v>
+        <v>0.00259928484349372</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1069117403552688</v>
+        <v>0.2166212482606298</v>
       </c>
       <c r="K13">
-        <v>2.616287781952565</v>
+        <v>1.589709438910461</v>
       </c>
       <c r="L13">
-        <v>0.3394247236287526</v>
+        <v>0.3106773096085078</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.299509729562359</v>
+        <v>3.835926191356378</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.883202399845345</v>
+        <v>2.12829616927371</v>
       </c>
       <c r="C14">
-        <v>0.1673089723555421</v>
+        <v>0.05041904553411314</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04111445359539445</v>
+        <v>0.07938818895328303</v>
       </c>
       <c r="F14">
-        <v>3.178291546104447</v>
+        <v>3.865551180913201</v>
       </c>
       <c r="G14">
-        <v>0.0008233912480350436</v>
+        <v>0.002600056349943232</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1074307972988713</v>
+        <v>0.2167531169489969</v>
       </c>
       <c r="K14">
-        <v>2.569370790083809</v>
+        <v>1.579358985821273</v>
       </c>
       <c r="L14">
-        <v>0.3336026007841042</v>
+        <v>0.3095898156277883</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.2988360398937</v>
+        <v>3.836458436919301</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.852319385278577</v>
+        <v>2.12179614618907</v>
       </c>
       <c r="C15">
-        <v>0.1652584879555974</v>
+        <v>0.04987611296243699</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0407667926448152</v>
+        <v>0.07935418836847674</v>
       </c>
       <c r="F15">
-        <v>3.15540200686695</v>
+        <v>3.861591120692339</v>
       </c>
       <c r="G15">
-        <v>0.0008242609991506874</v>
+        <v>0.002600531642217518</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1077504340101498</v>
+        <v>0.2168344427405984</v>
       </c>
       <c r="K15">
-        <v>2.540735202785527</v>
+        <v>1.57303536870117</v>
       </c>
       <c r="L15">
-        <v>0.3300464989454639</v>
+        <v>0.3089267638812885</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.298489032760017</v>
+        <v>3.836800518949417</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.676950186054398</v>
+        <v>2.084874116241167</v>
       </c>
       <c r="C16">
-        <v>0.1536212563156312</v>
+        <v>0.04676498377988025</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03878850986067306</v>
+        <v>0.07916842573034799</v>
       </c>
       <c r="F16">
-        <v>3.026116024839496</v>
+        <v>3.839357759432829</v>
       </c>
       <c r="G16">
-        <v>0.0008292689508173997</v>
+        <v>0.0026032971526246</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1096076079876482</v>
+        <v>0.2173089522088354</v>
       </c>
       <c r="K16">
-        <v>2.37812909736104</v>
+        <v>1.5370474314403</v>
       </c>
       <c r="L16">
-        <v>0.3098161127109478</v>
+        <v>0.3051741844428193</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.29747461355791</v>
+        <v>3.839006895598132</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.570719385101313</v>
+        <v>2.062515359706765</v>
       </c>
       <c r="C17">
-        <v>0.1465758250779743</v>
+        <v>0.04485650674784836</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03758690994699343</v>
+        <v>0.07906259050958653</v>
       </c>
       <c r="F17">
-        <v>2.948402996071479</v>
+        <v>3.82612876834267</v>
       </c>
       <c r="G17">
-        <v>0.0008323637635833606</v>
+        <v>0.002605031093661836</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1107690470687412</v>
+        <v>0.2176075982893089</v>
       </c>
       <c r="K17">
-        <v>2.279627061216019</v>
+        <v>1.515192997419632</v>
       </c>
       <c r="L17">
-        <v>0.2975304633175284</v>
+        <v>0.3029141850117583</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.297688034370495</v>
+        <v>3.840579758630227</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.510083604513397</v>
+        <v>2.04976237829834</v>
       </c>
       <c r="C18">
-        <v>0.1425550661156478</v>
+        <v>0.04375880767493356</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0369000050900663</v>
+        <v>0.07900471084549743</v>
       </c>
       <c r="F18">
-        <v>2.904261123813342</v>
+        <v>3.81867059009673</v>
       </c>
       <c r="G18">
-        <v>0.0008341526551876609</v>
+        <v>0.002606042186324986</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1114449806958149</v>
+        <v>0.2177821450598429</v>
       </c>
       <c r="K18">
-        <v>2.223400535799215</v>
+        <v>1.502704771028476</v>
       </c>
       <c r="L18">
-        <v>0.2905072816707701</v>
+        <v>0.3016297822892255</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.298105160783962</v>
+        <v>3.841564939061129</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.489630405334253</v>
+        <v>2.045462845122358</v>
       </c>
       <c r="C19">
-        <v>0.1411988744768991</v>
+        <v>0.04338714387189668</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03666813883459419</v>
+        <v>0.07898562879584858</v>
       </c>
       <c r="F19">
-        <v>2.889408183203443</v>
+        <v>3.816171271984899</v>
       </c>
       <c r="G19">
-        <v>0.0008347599096479067</v>
+        <v>0.002606386894154822</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1116751775209295</v>
+        <v>0.2178417198363256</v>
       </c>
       <c r="K19">
-        <v>2.204434121469689</v>
+        <v>1.498490524689259</v>
       </c>
       <c r="L19">
-        <v>0.2881365206180817</v>
+        <v>0.3011975680261685</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.298295787983676</v>
+        <v>3.841912323693833</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.581978977042183</v>
+        <v>2.064884393969407</v>
       </c>
       <c r="C20">
-        <v>0.1473224924410346</v>
+        <v>0.04505966603618106</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03771438098436342</v>
+        <v>0.0790735471750672</v>
       </c>
       <c r="F20">
-        <v>2.956617387760332</v>
+        <v>3.82752140993972</v>
       </c>
       <c r="G20">
-        <v>0.0008320334125520923</v>
+        <v>0.002604845087595987</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1106445869080694</v>
+        <v>0.2175755198402811</v>
       </c>
       <c r="K20">
-        <v>2.290067673705124</v>
+        <v>1.517510964502691</v>
       </c>
       <c r="L20">
-        <v>0.2988337603082982</v>
+        <v>0.3031531632481119</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.297634569540975</v>
+        <v>3.840403990118716</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.898041314288605</v>
+        <v>2.131418891685257</v>
       </c>
       <c r="C21">
-        <v>0.1682943475688319</v>
+        <v>0.05067940103734259</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04128142174732119</v>
+        <v>0.07940465349818382</v>
       </c>
       <c r="F21">
-        <v>3.189302235132402</v>
+        <v>3.867458278955212</v>
       </c>
       <c r="G21">
-        <v>0.000822974578786678</v>
+        <v>0.002599829172666369</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1072779821149048</v>
+        <v>0.2167142687901702</v>
       </c>
       <c r="K21">
-        <v>2.583129913826298</v>
+        <v>1.58239576025548</v>
       </c>
       <c r="L21">
-        <v>0.3353105743317002</v>
+        <v>0.3099085993681143</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.299020159454074</v>
+        <v>3.836298754797497</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.109449296828302</v>
+        <v>2.175857934056125</v>
       </c>
       <c r="C22">
-        <v>0.1823444759581605</v>
+        <v>0.05435292539648628</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04365449865671067</v>
+        <v>0.07964753435011929</v>
       </c>
       <c r="F22">
-        <v>3.34702168056134</v>
+        <v>3.89490323943852</v>
       </c>
       <c r="G22">
-        <v>0.0008171210650735894</v>
+        <v>0.002596672913044041</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.105153146438294</v>
+        <v>0.2161761130449307</v>
       </c>
       <c r="K22">
-        <v>2.779163005775217</v>
+        <v>1.625532575630331</v>
       </c>
       <c r="L22">
-        <v>0.3595955238038187</v>
+        <v>0.3144611210232569</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.30282888390451</v>
+        <v>3.834334593282009</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.996137697027848</v>
+        <v>2.152052583739589</v>
       </c>
       <c r="C23">
-        <v>0.1748109534009643</v>
+        <v>0.05239220062453853</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04238390187756025</v>
+        <v>0.07951548953410992</v>
       </c>
       <c r="F23">
-        <v>3.262291642684801</v>
+        <v>3.880132321716502</v>
       </c>
       <c r="G23">
-        <v>0.0008202396723632307</v>
+        <v>0.002598346347055024</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1062800427726209</v>
+        <v>0.216461073628107</v>
       </c>
       <c r="K23">
-        <v>2.674089722975339</v>
+        <v>1.602442681429096</v>
       </c>
       <c r="L23">
-        <v>0.3465903386594817</v>
+        <v>0.3120188003091755</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.300515891095372</v>
+        <v>3.835317035551114</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.576887159580565</v>
+        <v>2.063813037844056</v>
       </c>
       <c r="C24">
-        <v>0.1469848321161464</v>
+        <v>0.04496781925648463</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03765673919163604</v>
+        <v>0.07906858442505005</v>
       </c>
       <c r="F24">
-        <v>2.952901997934191</v>
+        <v>3.82689133771828</v>
       </c>
       <c r="G24">
-        <v>0.0008321827340574413</v>
+        <v>0.002604929136515921</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1107008298375085</v>
+        <v>0.217590013625852</v>
       </c>
       <c r="K24">
-        <v>2.285346222881429</v>
+        <v>1.516462774319479</v>
       </c>
       <c r="L24">
-        <v>0.2982444157899948</v>
+        <v>0.3030450747690878</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.297657826919135</v>
+        <v>3.840483203009896</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.142126623097624</v>
+        <v>1.972729661735627</v>
       </c>
       <c r="C25">
-        <v>0.1181494414284998</v>
+        <v>0.03695926195052834</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03271721587918108</v>
+        <v>0.07870109306278827</v>
       </c>
       <c r="F25">
-        <v>2.640135700935545</v>
+        <v>3.775226295723385</v>
       </c>
       <c r="G25">
-        <v>0.0008454086326536991</v>
+        <v>0.002612556870012276</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1157694982975368</v>
+        <v>0.2189137832545782</v>
       </c>
       <c r="K25">
-        <v>1.882122530065061</v>
+        <v>1.426848013453366</v>
       </c>
       <c r="L25">
-        <v>0.2477185879288868</v>
+        <v>0.2939578869588644</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.305700996343376</v>
+        <v>3.849132733110025</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.909168386128414</v>
+        <v>1.833725098921889</v>
       </c>
       <c r="C2">
-        <v>0.03105757396912168</v>
+        <v>0.09764267959977246</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07852987395450661</v>
+        <v>0.02919684699476832</v>
       </c>
       <c r="F2">
-        <v>3.742124059222519</v>
+        <v>2.42461443673767</v>
       </c>
       <c r="G2">
-        <v>0.002618631557067928</v>
+        <v>0.0008554989016811231</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2199797100253313</v>
+        <v>0.1197384124712357</v>
       </c>
       <c r="K2">
-        <v>1.363528138879758</v>
+        <v>1.5958753704343</v>
       </c>
       <c r="L2">
-        <v>0.2877771645403016</v>
+        <v>0.2116203858092689</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.858137254446149</v>
+        <v>2.319893115521893</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.868268787627954</v>
+        <v>1.630577417040058</v>
       </c>
       <c r="C3">
-        <v>0.02705245307993209</v>
+        <v>0.08407236571399324</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07847626374588224</v>
+        <v>0.02687472009237979</v>
       </c>
       <c r="F3">
-        <v>3.72276296164921</v>
+        <v>2.286339232012807</v>
       </c>
       <c r="G3">
-        <v>0.002623036941766184</v>
+        <v>0.0008625818862578364</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2207590449109098</v>
+        <v>0.1225672365208794</v>
       </c>
       <c r="K3">
-        <v>1.322264614845722</v>
+        <v>1.407128767020311</v>
       </c>
       <c r="L3">
-        <v>0.2839071752102456</v>
+        <v>0.1877161959045281</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.865879027646415</v>
+        <v>2.334106060337632</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.84422793003165</v>
+        <v>1.508307015706919</v>
       </c>
       <c r="C4">
-        <v>0.02458985849845874</v>
+        <v>0.07586515348431533</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07847429984379239</v>
+        <v>0.02547764941788166</v>
       </c>
       <c r="F4">
-        <v>3.712388858739118</v>
+        <v>2.204855728217467</v>
       </c>
       <c r="G4">
-        <v>0.002625885012283175</v>
+        <v>0.0008670590579323283</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2212656576236984</v>
+        <v>0.1243702740732555</v>
       </c>
       <c r="K4">
-        <v>1.297738820828926</v>
+        <v>1.293414127386228</v>
       </c>
       <c r="L4">
-        <v>0.2816884988424917</v>
+        <v>0.1732769526110829</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.871439607836891</v>
+        <v>2.344932835998179</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.834700585638245</v>
+        <v>1.459042269119777</v>
       </c>
       <c r="C5">
-        <v>0.02358537901130831</v>
+        <v>0.07254715318576643</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07848131024403671</v>
+        <v>0.02491519673721321</v>
       </c>
       <c r="F5">
-        <v>3.708541910237088</v>
+        <v>2.172452420442312</v>
       </c>
       <c r="G5">
-        <v>0.002627081736213858</v>
+        <v>0.0008689167984606993</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2214791720152061</v>
+        <v>0.1251213196934611</v>
       </c>
       <c r="K5">
-        <v>1.287947894092923</v>
+        <v>1.247566031880638</v>
       </c>
       <c r="L5">
-        <v>0.2808240558563355</v>
+        <v>0.1674475263965363</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.873908350958061</v>
+        <v>2.349850021286869</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.833134855451192</v>
+        <v>1.450894186758092</v>
       </c>
       <c r="C6">
-        <v>0.02341852586688731</v>
+        <v>0.07199766549064179</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0784829468698014</v>
+        <v>0.02482220651992151</v>
       </c>
       <c r="F6">
-        <v>3.707926112482255</v>
+        <v>2.167118696796763</v>
       </c>
       <c r="G6">
-        <v>0.002627282635635386</v>
+        <v>0.0008692273122054535</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2215150526703979</v>
+        <v>0.1252470051568952</v>
       </c>
       <c r="K6">
-        <v>1.286334405712637</v>
+        <v>1.239981121955651</v>
       </c>
       <c r="L6">
-        <v>0.2806829149873664</v>
+        <v>0.1664827125717139</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.874330524669034</v>
+        <v>2.350696390270642</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.844098349705916</v>
+        <v>1.50764041454164</v>
       </c>
       <c r="C7">
-        <v>0.02457631570862873</v>
+        <v>0.07582030470071288</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07847436272648523</v>
+        <v>0.02547003664384384</v>
       </c>
       <c r="F7">
-        <v>3.712335436554923</v>
+        <v>2.204415552398359</v>
       </c>
       <c r="G7">
-        <v>0.002625901005481355</v>
+        <v>0.0008670839760784697</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2212685085454336</v>
+        <v>0.1243803373844106</v>
       </c>
       <c r="K7">
-        <v>1.297605953118762</v>
+        <v>1.292793884571637</v>
       </c>
       <c r="L7">
-        <v>0.2816766798713317</v>
+        <v>0.1731981201103494</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.871472081470941</v>
+        <v>2.344997134431111</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.894843773846816</v>
+        <v>1.763132363871762</v>
       </c>
       <c r="C8">
-        <v>0.02967726648671487</v>
+        <v>0.09293459818040617</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07850498101485393</v>
+        <v>0.02838999186748303</v>
       </c>
       <c r="F8">
-        <v>3.735134142287379</v>
+        <v>2.376191778186993</v>
       </c>
       <c r="G8">
-        <v>0.002620120894073119</v>
+        <v>0.0008579151449503921</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2202425930644338</v>
+        <v>0.1206998537993123</v>
       </c>
       <c r="K8">
-        <v>1.349132189209115</v>
+        <v>1.530308942664277</v>
       </c>
       <c r="L8">
-        <v>0.2864101447966192</v>
+        <v>0.2033255919503887</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.860638986865524</v>
+        <v>2.324343606579589</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.002865838941091</v>
+        <v>2.286550527622296</v>
       </c>
       <c r="C9">
-        <v>0.03965741933733113</v>
+        <v>0.1277321716696065</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07880950553491495</v>
+        <v>0.03436170272430772</v>
       </c>
       <c r="F9">
-        <v>3.791861458883417</v>
+        <v>2.742993955055354</v>
       </c>
       <c r="G9">
-        <v>0.002609916582561193</v>
+        <v>0.0008409023338317168</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2184536995451793</v>
+        <v>0.1140240255189848</v>
       </c>
       <c r="K9">
-        <v>1.456619495546363</v>
+        <v>2.016096007756573</v>
       </c>
       <c r="L9">
-        <v>0.2969397351569967</v>
+        <v>0.264548532717555</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.845808985730997</v>
+        <v>2.301626116452184</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.087439931090387</v>
+        <v>2.689137174941152</v>
       </c>
       <c r="C10">
-        <v>0.04698275735474056</v>
+        <v>0.1544296698987324</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07918090734951555</v>
+        <v>0.03892620670574765</v>
       </c>
       <c r="F10">
-        <v>3.840887715410361</v>
+        <v>3.035061273526139</v>
       </c>
       <c r="G10">
-        <v>0.002603101161769095</v>
+        <v>0.0008289169705992177</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2172752505033095</v>
+        <v>0.1094761667688715</v>
       </c>
       <c r="K10">
-        <v>1.539552273711934</v>
+        <v>2.389429214572772</v>
       </c>
       <c r="L10">
-        <v>0.3054341633006743</v>
+        <v>0.3112240406168638</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.838838336938664</v>
+        <v>2.297491057335222</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.127051900416802</v>
+        <v>2.877290156151162</v>
       </c>
       <c r="C11">
-        <v>0.05031521922722959</v>
+        <v>0.1669163971165801</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07938165191775504</v>
+        <v>0.04104791448155964</v>
       </c>
       <c r="F11">
-        <v>3.864792115123549</v>
+        <v>3.173906835312607</v>
       </c>
       <c r="G11">
-        <v>0.002600147078683519</v>
+        <v>0.0008235574830664511</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2167686361664813</v>
+        <v>0.1074918213231975</v>
       </c>
       <c r="K11">
-        <v>1.578148747993367</v>
+        <v>2.563888779381671</v>
       </c>
       <c r="L11">
-        <v>0.309462837719451</v>
+        <v>0.3329219710242342</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.836522900695272</v>
+        <v>2.298765814904442</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.142215912978259</v>
+        <v>2.949361119485332</v>
       </c>
       <c r="C12">
-        <v>0.05157726315817968</v>
+        <v>0.1717029854188326</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07946221519727104</v>
+        <v>0.04185847653981511</v>
       </c>
       <c r="F12">
-        <v>3.874074742701936</v>
+        <v>3.227444133536864</v>
       </c>
       <c r="G12">
-        <v>0.002599049358979161</v>
+        <v>0.0008215396051938265</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2165810333071896</v>
+        <v>0.106753263821215</v>
       </c>
       <c r="K12">
-        <v>1.592889759469188</v>
+        <v>2.630715763837259</v>
       </c>
       <c r="L12">
-        <v>0.3110119966566884</v>
+        <v>0.3412140893209283</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.835769400000302</v>
+        <v>2.299742821065877</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.138942784526307</v>
+        <v>2.933801096617856</v>
       </c>
       <c r="C13">
-        <v>0.0513054528832555</v>
+        <v>0.1706693682256031</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07944466269530182</v>
+        <v>0.04168358069444622</v>
       </c>
       <c r="F13">
-        <v>3.87206530619352</v>
+        <v>3.215869553481411</v>
       </c>
       <c r="G13">
-        <v>0.00259928484349372</v>
+        <v>0.0008219737021863355</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2166212482606298</v>
+        <v>0.1069117403551729</v>
       </c>
       <c r="K13">
-        <v>1.589709438910461</v>
+        <v>2.616287781952593</v>
       </c>
       <c r="L13">
-        <v>0.3106773096085078</v>
+        <v>0.3394247236287242</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.835926191356378</v>
+        <v>2.299509729562402</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.12829616927371</v>
+        <v>2.883202399845345</v>
       </c>
       <c r="C14">
-        <v>0.05041904553411314</v>
+        <v>0.1673089723555421</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07938818895328303</v>
+        <v>0.04111445359539445</v>
       </c>
       <c r="F14">
-        <v>3.865551180913201</v>
+        <v>3.178291546104475</v>
       </c>
       <c r="G14">
-        <v>0.002600056349943232</v>
+        <v>0.0008233912480929695</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2167531169489969</v>
+        <v>0.1074307972988677</v>
       </c>
       <c r="K14">
-        <v>1.579358985821273</v>
+        <v>2.569370790083866</v>
       </c>
       <c r="L14">
-        <v>0.3095898156277883</v>
+        <v>0.333602600784161</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.836458436919301</v>
+        <v>2.298836039893672</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.12179614618907</v>
+        <v>2.852319385278406</v>
       </c>
       <c r="C15">
-        <v>0.04987611296243699</v>
+        <v>0.1652584879555974</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07935418836847674</v>
+        <v>0.0407667926448525</v>
       </c>
       <c r="F15">
-        <v>3.861591120692339</v>
+        <v>3.15540200686695</v>
       </c>
       <c r="G15">
-        <v>0.002600531642217518</v>
+        <v>0.0008242609990928465</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2168344427405984</v>
+        <v>0.1077504340100433</v>
       </c>
       <c r="K15">
-        <v>1.57303536870117</v>
+        <v>2.540735202785527</v>
       </c>
       <c r="L15">
-        <v>0.3089267638812885</v>
+        <v>0.3300464989454213</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.836800518949417</v>
+        <v>2.298489032760031</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.084874116241167</v>
+        <v>2.676950186054512</v>
       </c>
       <c r="C16">
-        <v>0.04676498377988025</v>
+        <v>0.1536212563156027</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07916842573034799</v>
+        <v>0.03878850986069793</v>
       </c>
       <c r="F16">
-        <v>3.839357759432829</v>
+        <v>3.026116024839496</v>
       </c>
       <c r="G16">
-        <v>0.0026032971526246</v>
+        <v>0.0008292689508729203</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2173089522088354</v>
+        <v>0.1096076079875523</v>
       </c>
       <c r="K16">
-        <v>1.5370474314403</v>
+        <v>2.378129097361125</v>
       </c>
       <c r="L16">
-        <v>0.3051741844428193</v>
+        <v>0.3098161127109336</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.839006895598132</v>
+        <v>2.297474613557867</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.062515359706765</v>
+        <v>2.57071938510137</v>
       </c>
       <c r="C17">
-        <v>0.04485650674784836</v>
+        <v>0.1465758250777185</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07906259050958653</v>
+        <v>0.03758690994699165</v>
       </c>
       <c r="F17">
-        <v>3.82612876834267</v>
+        <v>2.948402996071508</v>
       </c>
       <c r="G17">
-        <v>0.002605031093661836</v>
+        <v>0.0008323637635235774</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2176075982893089</v>
+        <v>0.1107690470687395</v>
       </c>
       <c r="K17">
-        <v>1.515192997419632</v>
+        <v>2.279627061215905</v>
       </c>
       <c r="L17">
-        <v>0.3029141850117583</v>
+        <v>0.2975304633174147</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.840579758630227</v>
+        <v>2.297688034370495</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.04976237829834</v>
+        <v>2.510083604513397</v>
       </c>
       <c r="C18">
-        <v>0.04375880767493356</v>
+        <v>0.142555066115861</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07900471084549743</v>
+        <v>0.03690000509000235</v>
       </c>
       <c r="F18">
-        <v>3.81867059009673</v>
+        <v>2.904261123813285</v>
       </c>
       <c r="G18">
-        <v>0.002606042186324986</v>
+        <v>0.0008341526551304979</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2177821450598429</v>
+        <v>0.111444980695806</v>
       </c>
       <c r="K18">
-        <v>1.502704771028476</v>
+        <v>2.223400535799215</v>
       </c>
       <c r="L18">
-        <v>0.3016297822892255</v>
+        <v>0.2905072816707559</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.841564939061129</v>
+        <v>2.298105160783948</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.045462845122358</v>
+        <v>2.48963040533431</v>
       </c>
       <c r="C19">
-        <v>0.04338714387189668</v>
+        <v>0.1411988744768848</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07898562879584858</v>
+        <v>0.03666813883461906</v>
       </c>
       <c r="F19">
-        <v>3.816171271984899</v>
+        <v>2.8894081832035</v>
       </c>
       <c r="G19">
-        <v>0.002606386894154822</v>
+        <v>0.0008347599096454642</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2178417198363256</v>
+        <v>0.1116751775210201</v>
       </c>
       <c r="K19">
-        <v>1.498490524689259</v>
+        <v>2.204434121469603</v>
       </c>
       <c r="L19">
-        <v>0.3011975680261685</v>
+        <v>0.2881365206181101</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.841912323693833</v>
+        <v>2.298295787983676</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.064884393969407</v>
+        <v>2.581978977042183</v>
       </c>
       <c r="C20">
-        <v>0.04505966603618106</v>
+        <v>0.147322492440793</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0790735471750672</v>
+        <v>0.0377143809843723</v>
       </c>
       <c r="F20">
-        <v>3.82752140993972</v>
+        <v>2.95661738776036</v>
       </c>
       <c r="G20">
-        <v>0.002604845087595987</v>
+        <v>0.0008320334126098735</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2175755198402811</v>
+        <v>0.1106445869080872</v>
       </c>
       <c r="K20">
-        <v>1.517510964502691</v>
+        <v>2.290067673705153</v>
       </c>
       <c r="L20">
-        <v>0.3031531632481119</v>
+        <v>0.2988337603083124</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.840403990118716</v>
+        <v>2.297634569540946</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.131418891685257</v>
+        <v>2.898041314288719</v>
       </c>
       <c r="C21">
-        <v>0.05067940103734259</v>
+        <v>0.1682943475688461</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07940465349818382</v>
+        <v>0.04128142174735316</v>
       </c>
       <c r="F21">
-        <v>3.867458278955212</v>
+        <v>3.189302235132402</v>
       </c>
       <c r="G21">
-        <v>0.002599829172666369</v>
+        <v>0.0008229745787300131</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2167142687901702</v>
+        <v>0.107277982114816</v>
       </c>
       <c r="K21">
-        <v>1.58239576025548</v>
+        <v>2.583129913826241</v>
       </c>
       <c r="L21">
-        <v>0.3099085993681143</v>
+        <v>0.3353105743317002</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.836298754797497</v>
+        <v>2.299020159454074</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.175857934056125</v>
+        <v>3.109449296828359</v>
       </c>
       <c r="C22">
-        <v>0.05435292539648628</v>
+        <v>0.1823444759583737</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07964753435011929</v>
+        <v>0.0436544986566787</v>
       </c>
       <c r="F22">
-        <v>3.89490323943852</v>
+        <v>3.34702168056134</v>
       </c>
       <c r="G22">
-        <v>0.002596672913044041</v>
+        <v>0.0008171210651922577</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2161761130449307</v>
+        <v>0.1051531464382904</v>
       </c>
       <c r="K22">
-        <v>1.625532575630331</v>
+        <v>2.779163005775331</v>
       </c>
       <c r="L22">
-        <v>0.3144611210232569</v>
+        <v>0.359595523803975</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.834334593282009</v>
+        <v>2.30282888390451</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.152052583739589</v>
+        <v>2.996137697027848</v>
       </c>
       <c r="C23">
-        <v>0.05239220062453853</v>
+        <v>0.1748109534009501</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07951548953410992</v>
+        <v>0.04238390187756025</v>
       </c>
       <c r="F23">
-        <v>3.880132321716502</v>
+        <v>3.262291642684829</v>
       </c>
       <c r="G23">
-        <v>0.002598346347055024</v>
+        <v>0.0008202396723051467</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.216461073628107</v>
+        <v>0.1062800427727026</v>
       </c>
       <c r="K23">
-        <v>1.602442681429096</v>
+        <v>2.674089722975395</v>
       </c>
       <c r="L23">
-        <v>0.3120188003091755</v>
+        <v>0.3465903386596381</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.835317035551114</v>
+        <v>2.300515891095429</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.063813037844056</v>
+        <v>2.576887159580679</v>
       </c>
       <c r="C24">
-        <v>0.04496781925648463</v>
+        <v>0.1469848321158906</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07906858442505005</v>
+        <v>0.03765673919159696</v>
       </c>
       <c r="F24">
-        <v>3.82689133771828</v>
+        <v>2.952901997934219</v>
       </c>
       <c r="G24">
-        <v>0.002604929136515921</v>
+        <v>0.0008321827340524453</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.217590013625852</v>
+        <v>0.1107008298375405</v>
       </c>
       <c r="K24">
-        <v>1.516462774319479</v>
+        <v>2.285346222881401</v>
       </c>
       <c r="L24">
-        <v>0.3030450747690878</v>
+        <v>0.2982444157899522</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.840483203009896</v>
+        <v>2.297657826919249</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.972729661735627</v>
+        <v>2.14212662309734</v>
       </c>
       <c r="C25">
-        <v>0.03695926195052834</v>
+        <v>0.118149441428713</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07870109306278827</v>
+        <v>0.03271721587918286</v>
       </c>
       <c r="F25">
-        <v>3.775226295723385</v>
+        <v>2.640135700935573</v>
       </c>
       <c r="G25">
-        <v>0.002612556870012276</v>
+        <v>0.0008454086326474483</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2189137832545782</v>
+        <v>0.1157694982974906</v>
       </c>
       <c r="K25">
-        <v>1.426848013453366</v>
+        <v>1.882122530065033</v>
       </c>
       <c r="L25">
-        <v>0.2939578869588644</v>
+        <v>0.2477185879288584</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.849132733110025</v>
+        <v>2.305700996343418</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.833725098921889</v>
+        <v>2.285489934566442</v>
       </c>
       <c r="C2">
-        <v>0.09764267959977246</v>
+        <v>0.5053145199752294</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02919684699476832</v>
+        <v>0.04975794176950898</v>
       </c>
       <c r="F2">
-        <v>2.42461443673767</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008554989016811231</v>
+        <v>0.7484795590052755</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001584505471649567</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001048785179230904</v>
       </c>
       <c r="J2">
-        <v>0.1197384124712357</v>
+        <v>0.516344792720659</v>
       </c>
       <c r="K2">
-        <v>1.5958753704343</v>
+        <v>0.4842921507350795</v>
       </c>
       <c r="L2">
-        <v>0.2116203858092689</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.319893115521893</v>
+        <v>0.1802243507979071</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4040461569530223</v>
+      </c>
+      <c r="P2">
+        <v>0.8686645724814355</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.630577417040058</v>
+        <v>1.991133987227386</v>
       </c>
       <c r="C3">
-        <v>0.08407236571399324</v>
+        <v>0.4453833183200118</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02687472009237979</v>
+        <v>0.04703651236006845</v>
       </c>
       <c r="F3">
-        <v>2.286339232012807</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008625818862578364</v>
+        <v>0.6941427086003955</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00287376201965106</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001984166400492704</v>
       </c>
       <c r="J3">
-        <v>0.1225672365208794</v>
+        <v>0.4957476312574585</v>
       </c>
       <c r="K3">
-        <v>1.407128767020311</v>
+        <v>0.4720724019650611</v>
       </c>
       <c r="L3">
-        <v>0.1877161959045281</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.334106060337632</v>
+        <v>0.1613243040876142</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3534427166736052</v>
+      </c>
+      <c r="P3">
+        <v>0.8954527635182963</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.508307015706919</v>
+        <v>1.809878207597677</v>
       </c>
       <c r="C4">
-        <v>0.07586515348431533</v>
+        <v>0.4087927806440064</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02547764941788166</v>
+        <v>0.04535765649349038</v>
       </c>
       <c r="F4">
-        <v>2.204855728217467</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008670590579323283</v>
+        <v>0.6612775848472126</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00389025077891858</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002837676279262347</v>
       </c>
       <c r="J4">
-        <v>0.1243702740732555</v>
+        <v>0.4834369955658815</v>
       </c>
       <c r="K4">
-        <v>1.293414127386228</v>
+        <v>0.4648024216564259</v>
       </c>
       <c r="L4">
-        <v>0.1732769526110829</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.344932835998179</v>
+        <v>0.1497421138434802</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3223225586177634</v>
+      </c>
+      <c r="P4">
+        <v>0.9125317826328114</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.459042269119777</v>
+        <v>1.734402139381785</v>
       </c>
       <c r="C5">
-        <v>0.07254715318576643</v>
+        <v>0.3942679645967644</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02491519673721321</v>
+        <v>0.04466154768806518</v>
       </c>
       <c r="F5">
-        <v>2.172452420442312</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008689167984606993</v>
+        <v>0.6469737706017042</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.004362009224443519</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003328368036017437</v>
       </c>
       <c r="J5">
-        <v>0.1251213196934611</v>
+        <v>0.4779769080505218</v>
       </c>
       <c r="K5">
-        <v>1.247566031880638</v>
+        <v>0.4612592708020244</v>
       </c>
       <c r="L5">
-        <v>0.1674475263965363</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.349850021286869</v>
+        <v>0.145076556901266</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3094636815142309</v>
+      </c>
+      <c r="P5">
+        <v>0.9197548039054979</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.450894186758092</v>
+        <v>1.720060075014771</v>
       </c>
       <c r="C6">
-        <v>0.07199766549064179</v>
+        <v>0.3922798223094048</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02482220651992151</v>
+        <v>0.0445349267463403</v>
       </c>
       <c r="F6">
-        <v>2.167118696796763</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008692273122054535</v>
+        <v>0.6433535277641624</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.004448090922029857</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.003514250638849248</v>
       </c>
       <c r="J6">
-        <v>0.1252470051568952</v>
+        <v>0.4764362997605076</v>
       </c>
       <c r="K6">
-        <v>1.239981121955651</v>
+        <v>0.4598985259268318</v>
       </c>
       <c r="L6">
-        <v>0.1664827125717139</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.350696390270642</v>
+        <v>0.1443638644202281</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3071286708807079</v>
+      </c>
+      <c r="P6">
+        <v>0.9211003414162384</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.50764041454164</v>
+        <v>1.803925114818725</v>
       </c>
       <c r="C7">
-        <v>0.07582030470071288</v>
+        <v>0.4097509799672707</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02547003664384384</v>
+        <v>0.0453189581533644</v>
       </c>
       <c r="F7">
-        <v>2.204415552398359</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008670839760784697</v>
+        <v>0.6576614534488954</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.003907816668463848</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.003101381132855963</v>
       </c>
       <c r="J7">
-        <v>0.1243803373844106</v>
+        <v>0.4816185180538355</v>
       </c>
       <c r="K7">
-        <v>1.292793884571637</v>
+        <v>0.4626357384929634</v>
       </c>
       <c r="L7">
-        <v>0.1731981201103494</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.344997134431111</v>
+        <v>0.1498487585532189</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3216042224215769</v>
+      </c>
+      <c r="P7">
+        <v>0.9130220779629319</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.763132363871762</v>
+        <v>2.177490767204119</v>
       </c>
       <c r="C8">
-        <v>0.09293459818040617</v>
+        <v>0.4861436574403797</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02838999186748303</v>
+        <v>0.04878261217694335</v>
       </c>
       <c r="F8">
-        <v>2.376191778186993</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008579151449503921</v>
+        <v>0.7250910771731895</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001990964462100231</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001614681093340842</v>
       </c>
       <c r="J8">
-        <v>0.1206998537993123</v>
+        <v>0.5068620281601994</v>
       </c>
       <c r="K8">
-        <v>1.530308942664277</v>
+        <v>0.4772281309845425</v>
       </c>
       <c r="L8">
-        <v>0.2033255919503887</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.324343606579589</v>
+        <v>0.1739293150705947</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3858778183705951</v>
+      </c>
+      <c r="P8">
+        <v>0.8783794555892044</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.286550527622296</v>
+        <v>2.915457990713833</v>
       </c>
       <c r="C9">
-        <v>0.1277321716696065</v>
+        <v>0.6359820050548137</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03436170272430772</v>
+        <v>0.05561640335863971</v>
       </c>
       <c r="F9">
-        <v>2.742993955055354</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008409023338317168</v>
+        <v>0.8680173423060751</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0001350965002691051</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.000701905007827186</v>
       </c>
       <c r="J9">
-        <v>0.1140240255189848</v>
+        <v>0.5624193558283679</v>
       </c>
       <c r="K9">
-        <v>2.016096007756573</v>
+        <v>0.5116811814808244</v>
       </c>
       <c r="L9">
-        <v>0.264548532717555</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.301626116452184</v>
+        <v>0.2211092765528946</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5126305131382694</v>
+      </c>
+      <c r="P9">
+        <v>0.814803613920315</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.689137174941152</v>
+        <v>3.434481906391795</v>
       </c>
       <c r="C10">
-        <v>0.1544296698987324</v>
+        <v>0.7511488808766558</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03892620670574765</v>
+        <v>0.06050156124814055</v>
       </c>
       <c r="F10">
-        <v>3.035061273526139</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0008289169705992177</v>
+        <v>0.9580880036065338</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0002871049136374815</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001812900830090669</v>
       </c>
       <c r="J10">
-        <v>0.1094761667688715</v>
+        <v>0.5960734833328161</v>
       </c>
       <c r="K10">
-        <v>2.389429214572772</v>
+        <v>0.527981080565624</v>
       </c>
       <c r="L10">
-        <v>0.3112240406168638</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.297491057335222</v>
+        <v>0.2442618375944789</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5952781469676935</v>
+      </c>
+      <c r="P10">
+        <v>0.7752706672052021</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.877290156151162</v>
+        <v>3.492806937224202</v>
       </c>
       <c r="C11">
-        <v>0.1669163971165801</v>
+        <v>0.8285420553090717</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04104791448155964</v>
+        <v>0.06586800111743063</v>
       </c>
       <c r="F11">
-        <v>3.173906835312607</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0008235574830664511</v>
+        <v>0.8520719281930269</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01884742182935639</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00272439990578377</v>
       </c>
       <c r="J11">
-        <v>0.1074918213231975</v>
+        <v>0.5374239459871859</v>
       </c>
       <c r="K11">
-        <v>2.563888779381671</v>
+        <v>0.4538487348400864</v>
       </c>
       <c r="L11">
-        <v>0.3329219710242342</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.298765814904442</v>
+        <v>0.1637381567141958</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5451386107849174</v>
+      </c>
+      <c r="P11">
+        <v>0.8007448452321313</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.949361119485332</v>
+        <v>3.438569495685101</v>
       </c>
       <c r="C12">
-        <v>0.1717029854188326</v>
+        <v>0.8685952233337275</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04185847653981511</v>
+        <v>0.07590051985373236</v>
       </c>
       <c r="F12">
-        <v>3.227444133536864</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0008215396051938265</v>
+        <v>0.7534075002566851</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05747500533689021</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002764201917358378</v>
       </c>
       <c r="J12">
-        <v>0.106753263821215</v>
+        <v>0.4854970688402034</v>
       </c>
       <c r="K12">
-        <v>2.630715763837259</v>
+        <v>0.3956617909727456</v>
       </c>
       <c r="L12">
-        <v>0.3412140893209283</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.299742821065877</v>
+        <v>0.1067299663752479</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4884956657849884</v>
+      </c>
+      <c r="P12">
+        <v>0.8439222914953177</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.933801096617856</v>
+        <v>3.287065168594097</v>
       </c>
       <c r="C13">
-        <v>0.1706693682256031</v>
+        <v>0.8835568069955855</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04168358069444622</v>
+        <v>0.08978644540309944</v>
       </c>
       <c r="F13">
-        <v>3.215869553481411</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0008219737021863355</v>
+        <v>0.6493594901912161</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131544929672543</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002456068927236821</v>
       </c>
       <c r="J13">
-        <v>0.1069117403551729</v>
+        <v>0.4329727568244266</v>
       </c>
       <c r="K13">
-        <v>2.616287781952593</v>
+        <v>0.3430154140649719</v>
       </c>
       <c r="L13">
-        <v>0.3394247236287242</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.299509729562402</v>
+        <v>0.06491231953950916</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4231316257569731</v>
+      </c>
+      <c r="P13">
+        <v>0.9023462709001109</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.883202399845345</v>
+        <v>3.136330712008316</v>
       </c>
       <c r="C14">
-        <v>0.1673089723555421</v>
+        <v>0.883054420302642</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04111445359539445</v>
+        <v>0.1019548433193371</v>
       </c>
       <c r="F14">
-        <v>3.178291546104475</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0008233912480929695</v>
+        <v>0.5745393959555685</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624630077556191</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00219795881301188</v>
       </c>
       <c r="J14">
-        <v>0.1074307972988677</v>
+        <v>0.3960939501887424</v>
       </c>
       <c r="K14">
-        <v>2.569370790083866</v>
+        <v>0.3091002038735162</v>
       </c>
       <c r="L14">
-        <v>0.333602600784161</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.298836039893672</v>
+        <v>0.04487353448613973</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3740768037742583</v>
+      </c>
+      <c r="P14">
+        <v>0.9516758895523907</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.852319385278406</v>
+        <v>3.077494195446832</v>
       </c>
       <c r="C15">
-        <v>0.1652584879555974</v>
+        <v>0.8779323014059344</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0407667926448525</v>
+        <v>0.1048617069700271</v>
       </c>
       <c r="F15">
-        <v>3.15540200686695</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0008242609990928465</v>
+        <v>0.553725871930169</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.174961839266885</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002186440187866623</v>
       </c>
       <c r="J15">
-        <v>0.1077504340100433</v>
+        <v>0.3862773088007856</v>
       </c>
       <c r="K15">
-        <v>2.540735202785527</v>
+        <v>0.3009646892431697</v>
       </c>
       <c r="L15">
-        <v>0.3300464989454213</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.298489032760031</v>
+        <v>0.04117983668154324</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3599353112137536</v>
+      </c>
+      <c r="P15">
+        <v>0.9656197544839813</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.676950186054512</v>
+        <v>2.885700744594487</v>
       </c>
       <c r="C16">
-        <v>0.1536212563156027</v>
+        <v>0.8248829488979084</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03878850986069793</v>
+        <v>0.09936587494935267</v>
       </c>
       <c r="F16">
-        <v>3.026116024839496</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0008292689508729203</v>
+        <v>0.5356032916942013</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1622155778000121</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001834711292727498</v>
       </c>
       <c r="J16">
-        <v>0.1096076079875523</v>
+        <v>0.3819513833608426</v>
       </c>
       <c r="K16">
-        <v>2.378129097361125</v>
+        <v>0.3039964432202318</v>
       </c>
       <c r="L16">
-        <v>0.3098161127109336</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.297474613557867</v>
+        <v>0.04104632429270794</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3393464312053638</v>
+      </c>
+      <c r="P16">
+        <v>0.9665534499666677</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.57071938510137</v>
+        <v>2.818141683815384</v>
       </c>
       <c r="C17">
-        <v>0.1465758250777185</v>
+        <v>0.7847163070418901</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03758690994699165</v>
+        <v>0.0882298746330541</v>
       </c>
       <c r="F17">
-        <v>2.948402996071508</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0008323637635235774</v>
+        <v>0.5606986099511602</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1244649021716242</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001747987512148441</v>
       </c>
       <c r="J17">
-        <v>0.1107690470687395</v>
+        <v>0.3979242244667631</v>
       </c>
       <c r="K17">
-        <v>2.279627061215905</v>
+        <v>0.3237790732866905</v>
       </c>
       <c r="L17">
-        <v>0.2975304633174147</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.297688034370495</v>
+        <v>0.0499571996229129</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3490269644039401</v>
+      </c>
+      <c r="P17">
+        <v>0.9408291501833261</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.510083604513397</v>
+        <v>2.853351447128546</v>
       </c>
       <c r="C18">
-        <v>0.142555066115861</v>
+        <v>0.7501751969384713</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03690000509000235</v>
+        <v>0.07398435390192226</v>
       </c>
       <c r="F18">
-        <v>2.904261123813285</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0008341526551304979</v>
+        <v>0.6306692589345175</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07163523388251036</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001504513609470237</v>
       </c>
       <c r="J18">
-        <v>0.111444980695806</v>
+        <v>0.4354981369483824</v>
       </c>
       <c r="K18">
-        <v>2.223400535799215</v>
+        <v>0.363900068861625</v>
       </c>
       <c r="L18">
-        <v>0.2905072816707559</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.298105160783948</v>
+        <v>0.0756280328013581</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3876549472732549</v>
+      </c>
+      <c r="P18">
+        <v>0.8942651174233021</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.48963040533431</v>
+        <v>2.959881443930612</v>
       </c>
       <c r="C19">
-        <v>0.1411988744768848</v>
+        <v>0.7255258231612629</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03666813883461906</v>
+        <v>0.06274874609531444</v>
       </c>
       <c r="F19">
-        <v>2.8894081832035</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0008347599096454642</v>
+        <v>0.7310213152542104</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02632851345604337</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001666532141163302</v>
       </c>
       <c r="J19">
-        <v>0.1116751775210201</v>
+        <v>0.4871526037580622</v>
       </c>
       <c r="K19">
-        <v>2.204434121469603</v>
+        <v>0.4185292138122989</v>
       </c>
       <c r="L19">
-        <v>0.2881365206181101</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.298295787983676</v>
+        <v>0.125188088313763</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4484270104077268</v>
+      </c>
+      <c r="P19">
+        <v>0.8466518434874573</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.581978977042183</v>
+        <v>3.281570665999936</v>
       </c>
       <c r="C20">
-        <v>0.147322492440793</v>
+        <v>0.7245652041000028</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0377143809843723</v>
+        <v>0.05911120580388163</v>
       </c>
       <c r="F20">
-        <v>2.95661738776036</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0008320334126098735</v>
+        <v>0.9227747484271447</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001348021657618936</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002140252349128957</v>
       </c>
       <c r="J20">
-        <v>0.1106445869080872</v>
+        <v>0.5813235233791261</v>
       </c>
       <c r="K20">
-        <v>2.290067673705153</v>
+        <v>0.5166849631804382</v>
       </c>
       <c r="L20">
-        <v>0.2988337603083124</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.297634569540946</v>
+        <v>0.2382032499352817</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5714113195026798</v>
+      </c>
+      <c r="P20">
+        <v>0.787519954979377</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.898041314288719</v>
+        <v>3.712875478105673</v>
       </c>
       <c r="C21">
-        <v>0.1682943475688461</v>
+        <v>0.8091662027854341</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04128142174735316</v>
+        <v>0.06323437449727476</v>
       </c>
       <c r="F21">
-        <v>3.189302235132402</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0008229745787300131</v>
+        <v>1.021685331558459</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0005015435747730557</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00348181543637871</v>
       </c>
       <c r="J21">
-        <v>0.107277982114816</v>
+        <v>0.6222377919233963</v>
       </c>
       <c r="K21">
-        <v>2.583129913826241</v>
+        <v>0.5458844141033694</v>
       </c>
       <c r="L21">
-        <v>0.3353105743317002</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.299020159454074</v>
+        <v>0.2743862633040379</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6510073548651789</v>
+      </c>
+      <c r="P21">
+        <v>0.7528702900539308</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.109449296828359</v>
+        <v>3.991709039548539</v>
       </c>
       <c r="C22">
-        <v>0.1823444759583737</v>
+        <v>0.8647810474716948</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0436544986566787</v>
+        <v>0.06590281738385206</v>
       </c>
       <c r="F22">
-        <v>3.34702168056134</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0008171210651922577</v>
+        <v>1.083209849154315</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001127326121950656</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004447211878800594</v>
       </c>
       <c r="J22">
-        <v>0.1051531464382904</v>
+        <v>0.6474583130607812</v>
       </c>
       <c r="K22">
-        <v>2.779163005775331</v>
+        <v>0.5632511470760591</v>
       </c>
       <c r="L22">
-        <v>0.359595523803975</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.30282888390451</v>
+        <v>0.2918374453678467</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6986496593525331</v>
+      </c>
+      <c r="P22">
+        <v>0.7318219940300743</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.996137697027848</v>
+        <v>3.848948275762211</v>
       </c>
       <c r="C23">
-        <v>0.1748109534009501</v>
+        <v>0.8336258701342558</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04238390187756025</v>
+        <v>0.06450684314341903</v>
       </c>
       <c r="F23">
-        <v>3.262291642684829</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0008202396723051467</v>
+        <v>1.054345829899418</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.000768133049326547</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003617644856160673</v>
       </c>
       <c r="J23">
-        <v>0.1062800427727026</v>
+        <v>0.6359961694013663</v>
       </c>
       <c r="K23">
-        <v>2.674089722975395</v>
+        <v>0.5564185881475439</v>
       </c>
       <c r="L23">
-        <v>0.3465903386596381</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.300515891095429</v>
+        <v>0.2823034707735843</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6738861150669067</v>
+      </c>
+      <c r="P23">
+        <v>0.7421991621621018</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.576887159580679</v>
+        <v>3.299053927789544</v>
       </c>
       <c r="C24">
-        <v>0.1469848321158906</v>
+        <v>0.7190569958745812</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03765673919159696</v>
+        <v>0.05925340313206195</v>
       </c>
       <c r="F24">
-        <v>2.952901997934219</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0008321827340524453</v>
+        <v>0.9407151946024186</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.476656628358498E-05</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001682160093654517</v>
       </c>
       <c r="J24">
-        <v>0.1107008298375405</v>
+        <v>0.5905044805804494</v>
       </c>
       <c r="K24">
-        <v>2.285346222881401</v>
+        <v>0.5275065862884176</v>
       </c>
       <c r="L24">
-        <v>0.2982444157899522</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.297657826919249</v>
+        <v>0.2467191969888347</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5791905427466304</v>
+      </c>
+      <c r="P24">
+        <v>0.7842482743109329</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.14212662309734</v>
+        <v>2.706963674112558</v>
       </c>
       <c r="C25">
-        <v>0.118149441428713</v>
+        <v>0.5972828051693568</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03271721587918286</v>
+        <v>0.0537102435069946</v>
       </c>
       <c r="F25">
-        <v>2.640135700935573</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0008454086326474483</v>
+        <v>0.8225591603029727</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0004188525262807108</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001087273720100868</v>
       </c>
       <c r="J25">
-        <v>0.1157694982974906</v>
+        <v>0.543888153667254</v>
       </c>
       <c r="K25">
-        <v>1.882122530065033</v>
+        <v>0.4983014617903123</v>
       </c>
       <c r="L25">
-        <v>0.2477185879288584</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.305700996343418</v>
+        <v>0.208620272480843</v>
       </c>
       <c r="O25">
+        <v>0.4773426044297864</v>
+      </c>
+      <c r="P25">
+        <v>0.8324135277918288</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.285489934566442</v>
+        <v>2.156684429109305</v>
       </c>
       <c r="C2">
-        <v>0.5053145199752294</v>
+        <v>0.5250881704484698</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04975794176950898</v>
+        <v>0.04885345302675348</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.7484795590052755</v>
+        <v>0.6308139573930447</v>
       </c>
       <c r="H2">
-        <v>0.001584505471649567</v>
+        <v>0.00124940951672492</v>
       </c>
       <c r="I2">
-        <v>0.001048785179230904</v>
+        <v>0.0008331590313455095</v>
       </c>
       <c r="J2">
-        <v>0.516344792720659</v>
+        <v>0.5017973749179561</v>
       </c>
       <c r="K2">
-        <v>0.4842921507350795</v>
+        <v>0.4161444026431447</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.201786170388111</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1175718989900894</v>
       </c>
       <c r="N2">
-        <v>0.1802243507979071</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4040461569530223</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8686645724814355</v>
+        <v>0.1894653833067039</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3896885553598679</v>
+      </c>
+      <c r="R2">
+        <v>0.865479807809777</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.991133987227386</v>
+        <v>1.885911181105399</v>
       </c>
       <c r="C3">
-        <v>0.4453833183200118</v>
+        <v>0.4598849417438657</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04703651236006845</v>
+        <v>0.04653971995905537</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.6941427086003955</v>
+        <v>0.5907803629393271</v>
       </c>
       <c r="H3">
-        <v>0.00287376201965106</v>
+        <v>0.002284844834140154</v>
       </c>
       <c r="I3">
-        <v>0.001984166400492704</v>
+        <v>0.001415592933677878</v>
       </c>
       <c r="J3">
-        <v>0.4957476312574585</v>
+        <v>0.4838242116751985</v>
       </c>
       <c r="K3">
-        <v>0.4720724019650611</v>
+        <v>0.410647399180661</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2047838123361814</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1116172904938573</v>
       </c>
       <c r="N3">
-        <v>0.1613243040876142</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3534427166736052</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8954527635182963</v>
+        <v>0.1701594742261037</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3416733101171232</v>
+      </c>
+      <c r="R3">
+        <v>0.8843370747010155</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.809878207597677</v>
+        <v>1.718701766951312</v>
       </c>
       <c r="C4">
-        <v>0.4087927806440064</v>
+        <v>0.4201169792641508</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04535765649349038</v>
+        <v>0.0451082585946545</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.6612775848472126</v>
+        <v>0.5666004949983119</v>
       </c>
       <c r="H4">
-        <v>0.00389025077891858</v>
+        <v>0.003104201272978502</v>
       </c>
       <c r="I4">
-        <v>0.002837676279262347</v>
+        <v>0.001992538197158389</v>
       </c>
       <c r="J4">
-        <v>0.4834369955658815</v>
+        <v>0.472785137727243</v>
       </c>
       <c r="K4">
-        <v>0.4648024216564259</v>
+        <v>0.4073703174896508</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2065807489222884</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1085951317172711</v>
       </c>
       <c r="N4">
-        <v>0.1497421138434802</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3223225586177634</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9125317826328114</v>
+        <v>0.1583374322901179</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3120906889582429</v>
+      </c>
+      <c r="R4">
+        <v>0.8966673433080743</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.734402139381785</v>
+        <v>1.648942722475113</v>
       </c>
       <c r="C5">
-        <v>0.3942679645967644</v>
+        <v>0.404315895426862</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04466154768806518</v>
+        <v>0.04451387359518616</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.6469737706017042</v>
+        <v>0.5559257626551783</v>
       </c>
       <c r="H5">
-        <v>0.004362009224443519</v>
+        <v>0.003485174213177955</v>
       </c>
       <c r="I5">
-        <v>0.003328368036017437</v>
+        <v>0.002367800524442742</v>
       </c>
       <c r="J5">
-        <v>0.4779769080505218</v>
+        <v>0.4677978314385456</v>
       </c>
       <c r="K5">
-        <v>0.4612592708020244</v>
+        <v>0.4055058223137635</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2070418975850359</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1073660271132031</v>
       </c>
       <c r="N5">
-        <v>0.145076556901266</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3094636815142309</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9197548039054979</v>
+        <v>0.1535755184192169</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2998553460136861</v>
+      </c>
+      <c r="R5">
+        <v>0.9020728244726506</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.720060075014771</v>
+        <v>1.635662332289229</v>
       </c>
       <c r="C6">
-        <v>0.3922798223094048</v>
+        <v>0.4021202869821821</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0445349267463403</v>
+        <v>0.04440582240982782</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.6433535277641624</v>
+        <v>0.553045622626982</v>
       </c>
       <c r="H6">
-        <v>0.004448090922029857</v>
+        <v>0.003554812217302306</v>
       </c>
       <c r="I6">
-        <v>0.003514250638849248</v>
+        <v>0.002549190105829879</v>
       </c>
       <c r="J6">
-        <v>0.4764362997605076</v>
+        <v>0.4663757116312155</v>
       </c>
       <c r="K6">
-        <v>0.4598985259268318</v>
+        <v>0.4045249554215573</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2068012047940826</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1069814474059836</v>
       </c>
       <c r="N6">
-        <v>0.1443638644202281</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3071286708807079</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9211003414162384</v>
+        <v>0.152845443592156</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2976344050652742</v>
+      </c>
+      <c r="R6">
+        <v>0.9032255653304126</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.803925114818725</v>
+        <v>1.711012252521499</v>
       </c>
       <c r="C7">
-        <v>0.4097509799672707</v>
+        <v>0.4198743276901382</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0453189581533644</v>
+        <v>0.04506641163416464</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.6576614534488954</v>
+        <v>0.5663087495627792</v>
       </c>
       <c r="H7">
-        <v>0.003907816668463848</v>
+        <v>0.003124160825429545</v>
       </c>
       <c r="I7">
-        <v>0.003101381132855963</v>
+        <v>0.002300125533420072</v>
       </c>
       <c r="J7">
-        <v>0.4816185180538355</v>
+        <v>0.4647992816935584</v>
       </c>
       <c r="K7">
-        <v>0.4626357384929634</v>
+        <v>0.404657734643056</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2053468629001607</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1077932157067938</v>
       </c>
       <c r="N7">
-        <v>0.1498487585532189</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3216042224215769</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9130220779629319</v>
+        <v>0.1583794160248644</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3110908966776762</v>
+      </c>
+      <c r="R7">
+        <v>0.8977864492409076</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.177490767204119</v>
+        <v>2.050192222494672</v>
       </c>
       <c r="C8">
-        <v>0.4861436574403797</v>
+        <v>0.5000899016340554</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04878261217694335</v>
+        <v>0.04799666473099401</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.7250910771731895</v>
+        <v>0.6225904167517768</v>
       </c>
       <c r="H8">
-        <v>0.001990964462100231</v>
+        <v>0.001587776528967466</v>
       </c>
       <c r="I8">
-        <v>0.001614681093340842</v>
+        <v>0.001351460726798592</v>
       </c>
       <c r="J8">
-        <v>0.5068620281601994</v>
+        <v>0.472832441731029</v>
       </c>
       <c r="K8">
-        <v>0.4772281309845425</v>
+        <v>0.4090319676047613</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2005965443368183</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1137013200414891</v>
       </c>
       <c r="N8">
-        <v>0.1739293150705947</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3858778183705951</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8783794555892044</v>
+        <v>0.1828280311716952</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3713913714767187</v>
+      </c>
+      <c r="R8">
+        <v>0.8742073833790727</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.915457990713833</v>
+        <v>2.724164689061638</v>
       </c>
       <c r="C9">
-        <v>0.6359820050548137</v>
+        <v>0.6621592027065617</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05561640335863971</v>
+        <v>0.05377129891097077</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.8680173423060751</v>
+        <v>0.7315574287192703</v>
       </c>
       <c r="H9">
-        <v>0.0001350965002691051</v>
+        <v>0.0001029044321718686</v>
       </c>
       <c r="I9">
-        <v>0.000701905007827186</v>
+        <v>0.0008862646647580519</v>
       </c>
       <c r="J9">
-        <v>0.5624193558283679</v>
+        <v>0.5139273307121783</v>
       </c>
       <c r="K9">
-        <v>0.5116811814808244</v>
+        <v>0.4248459261891568</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1937473993287036</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1323780541627251</v>
       </c>
       <c r="N9">
-        <v>0.2211092765528946</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5126305131382694</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.814803613920315</v>
+        <v>0.2310098330739976</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4910101540189942</v>
+      </c>
+      <c r="R9">
+        <v>0.8313948475173305</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.434481906391795</v>
+        <v>3.184496189390302</v>
       </c>
       <c r="C10">
-        <v>0.7511488808766558</v>
+        <v>0.7786587366828996</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06050156124814055</v>
+        <v>0.05788939146030669</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.9580880036065338</v>
+        <v>0.8169775970849713</v>
       </c>
       <c r="H10">
-        <v>0.0002871049136374815</v>
+        <v>0.0002676514135209196</v>
       </c>
       <c r="I10">
-        <v>0.001812900830090669</v>
+        <v>0.001956553434848018</v>
       </c>
       <c r="J10">
-        <v>0.5960734833328161</v>
+        <v>0.5022473609826363</v>
       </c>
       <c r="K10">
-        <v>0.527981080565624</v>
+        <v>0.4245268369327135</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.184023884445768</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1442839905415703</v>
       </c>
       <c r="N10">
-        <v>0.2442618375944789</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5952781469676935</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7752706672052021</v>
+        <v>0.254219599755146</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.566746240108067</v>
+      </c>
+      <c r="R10">
+        <v>0.8126790433673534</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.492806937224202</v>
+        <v>3.226336361738731</v>
       </c>
       <c r="C11">
-        <v>0.8285420553090717</v>
+        <v>0.838265637168405</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06586800111743063</v>
+        <v>0.06316021271116323</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.8520719281930269</v>
+        <v>0.7644635915030591</v>
       </c>
       <c r="H11">
-        <v>0.01884742182935639</v>
+        <v>0.01881281378008381</v>
       </c>
       <c r="I11">
-        <v>0.00272439990578377</v>
+        <v>0.00287810623289797</v>
       </c>
       <c r="J11">
-        <v>0.5374239459871859</v>
+        <v>0.3920433864428077</v>
       </c>
       <c r="K11">
-        <v>0.4538487348400864</v>
+        <v>0.3571189673639559</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1565228346904881</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1224750030769712</v>
       </c>
       <c r="N11">
-        <v>0.1637381567141958</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5451386107849174</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8007448452321313</v>
+        <v>0.1704410291869323</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5153399276134607</v>
+      </c>
+      <c r="R11">
+        <v>0.869753878416347</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.438569495685101</v>
+        <v>3.178460649115209</v>
       </c>
       <c r="C12">
-        <v>0.8685952233337275</v>
+        <v>0.866799610097587</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07590051985373236</v>
+        <v>0.07286014894407344</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.7534075002566851</v>
+        <v>0.6974773681113362</v>
       </c>
       <c r="H12">
-        <v>0.05747500533689021</v>
+        <v>0.05744764046148987</v>
       </c>
       <c r="I12">
-        <v>0.002764201917358378</v>
+        <v>0.002898903263547581</v>
       </c>
       <c r="J12">
-        <v>0.4854970688402034</v>
+        <v>0.3318765386311782</v>
       </c>
       <c r="K12">
-        <v>0.3956617909727456</v>
+        <v>0.3103675309193434</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1394470351911856</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1049110345188708</v>
       </c>
       <c r="N12">
-        <v>0.1067299663752479</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4884956657849884</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8439222914953177</v>
+        <v>0.1112414406243403</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4603109986724547</v>
+      </c>
+      <c r="R12">
+        <v>0.931802938534986</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.287065168594097</v>
+        <v>3.057197085866505</v>
       </c>
       <c r="C13">
-        <v>0.8835568069955855</v>
+        <v>0.8782589902382654</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08978644540309944</v>
+        <v>0.08674993203166004</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.6493594901912161</v>
+        <v>0.6052890386627894</v>
       </c>
       <c r="H13">
-        <v>0.1131544929672543</v>
+        <v>0.1131474824576912</v>
       </c>
       <c r="I13">
-        <v>0.002456068927236821</v>
+        <v>0.002642704274682828</v>
       </c>
       <c r="J13">
-        <v>0.4329727568244266</v>
+        <v>0.3055338941283452</v>
       </c>
       <c r="K13">
-        <v>0.3430154140649719</v>
+        <v>0.2741817392532226</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1276112294453302</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.08926414995313081</v>
       </c>
       <c r="N13">
-        <v>0.06491231953950916</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4231316257569731</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9023462709001109</v>
+        <v>0.06788847580321189</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3993494770377026</v>
+      </c>
+      <c r="R13">
+        <v>0.9956875703660444</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.136330712008316</v>
+        <v>2.937727403320764</v>
       </c>
       <c r="C14">
-        <v>0.883054420302642</v>
+        <v>0.8789254944256299</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1019548433193371</v>
+        <v>0.09924992443170311</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.5745393959555685</v>
+        <v>0.5314081029274007</v>
       </c>
       <c r="H14">
-        <v>0.1624630077556191</v>
+        <v>0.1624661692320473</v>
       </c>
       <c r="I14">
-        <v>0.00219795881301188</v>
+        <v>0.002454528171599968</v>
       </c>
       <c r="J14">
-        <v>0.3960939501887424</v>
+        <v>0.2987994089463086</v>
       </c>
       <c r="K14">
-        <v>0.3091002038735162</v>
+        <v>0.2531026390749957</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1212387225608911</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07925082672411321</v>
       </c>
       <c r="N14">
-        <v>0.04487353448613973</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3740768037742583</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9516758895523907</v>
+        <v>0.04704381251394452</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3543655857845351</v>
+      </c>
+      <c r="R14">
+        <v>1.04133583404419</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.077494195446832</v>
+        <v>2.891025482963414</v>
       </c>
       <c r="C15">
-        <v>0.8779323014059344</v>
+        <v>0.8756583500906174</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1048617069700271</v>
+        <v>0.1024165180040164</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.553725871930169</v>
+        <v>0.5081775487181943</v>
       </c>
       <c r="H15">
-        <v>0.174961839266885</v>
+        <v>0.1749663898875866</v>
       </c>
       <c r="I15">
-        <v>0.002186440187866623</v>
+        <v>0.002490675995165503</v>
       </c>
       <c r="J15">
-        <v>0.3862773088007856</v>
+        <v>0.301611727323845</v>
       </c>
       <c r="K15">
-        <v>0.3009646892431697</v>
+        <v>0.2489048302822603</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1201884919665144</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07685355791236148</v>
       </c>
       <c r="N15">
-        <v>0.04117983668154324</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3599353112137536</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9656197544839813</v>
+        <v>0.04322320890861064</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3416788735885987</v>
+      </c>
+      <c r="R15">
+        <v>1.051558592535557</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.885700744594487</v>
+        <v>2.73699627175796</v>
       </c>
       <c r="C16">
-        <v>0.8248829488979084</v>
+        <v>0.8353073272213862</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09936587494935267</v>
+        <v>0.0983295357457834</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.5356032916942013</v>
+        <v>0.4684302551844866</v>
       </c>
       <c r="H16">
-        <v>0.1622155778000121</v>
+        <v>0.1622012725460138</v>
       </c>
       <c r="I16">
-        <v>0.001834711292727498</v>
+        <v>0.002220450142588426</v>
       </c>
       <c r="J16">
-        <v>0.3819513833608426</v>
+        <v>0.3446732170002633</v>
       </c>
       <c r="K16">
-        <v>0.3039964432202318</v>
+        <v>0.2591729964966625</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1256789968000565</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07766481144773962</v>
       </c>
       <c r="N16">
-        <v>0.04104632429270794</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3393464312053638</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9665534499666677</v>
+        <v>0.04359926967745942</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3251894833316626</v>
+      </c>
+      <c r="R16">
+        <v>1.030183689273954</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.818141683815384</v>
+        <v>2.678718323153362</v>
       </c>
       <c r="C17">
-        <v>0.7847163070418901</v>
+        <v>0.8018534726265898</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0882298746330541</v>
+        <v>0.08771144495869265</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.5606986099511602</v>
+        <v>0.4790478414094537</v>
       </c>
       <c r="H17">
-        <v>0.1244649021716242</v>
+        <v>0.1244251869657091</v>
       </c>
       <c r="I17">
-        <v>0.001747987512148441</v>
+        <v>0.002151082281422134</v>
       </c>
       <c r="J17">
-        <v>0.3979242244667631</v>
+        <v>0.3789439622034649</v>
       </c>
       <c r="K17">
-        <v>0.3237790732866905</v>
+        <v>0.2778947568420982</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1336206238550339</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0830913234997368</v>
       </c>
       <c r="N17">
-        <v>0.0499571996229129</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3490269644039401</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9408291501833261</v>
+        <v>0.05333594757167859</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3356722866538036</v>
+      </c>
+      <c r="R17">
+        <v>0.9930779355866832</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.853351447128546</v>
+        <v>2.70463727860988</v>
       </c>
       <c r="C18">
-        <v>0.7501751969384713</v>
+        <v>0.7725745674319455</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07398435390192226</v>
+        <v>0.07341338698871702</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.6306692589345175</v>
+        <v>0.5319489232524859</v>
       </c>
       <c r="H18">
-        <v>0.07163523388251036</v>
+        <v>0.07159000425859574</v>
       </c>
       <c r="I18">
-        <v>0.001504513609470237</v>
+        <v>0.001860726261018186</v>
       </c>
       <c r="J18">
-        <v>0.4354981369483824</v>
+        <v>0.419358883783886</v>
       </c>
       <c r="K18">
-        <v>0.363900068861625</v>
+        <v>0.3102145588031107</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.146232351438794</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09447825971552959</v>
       </c>
       <c r="N18">
-        <v>0.0756280328013581</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3876549472732549</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8942651174233021</v>
+        <v>0.08039278858441179</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3729054424596612</v>
+      </c>
+      <c r="R18">
+        <v>0.939153196393562</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.959881443930612</v>
+        <v>2.789960890165844</v>
       </c>
       <c r="C19">
-        <v>0.7255258231612629</v>
+        <v>0.7527375854068339</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06274874609531444</v>
+        <v>0.06169930874336949</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.7310213152542104</v>
+        <v>0.6117519599389709</v>
       </c>
       <c r="H19">
-        <v>0.02632851345604337</v>
+        <v>0.02630089265372959</v>
       </c>
       <c r="I19">
-        <v>0.001666532141163302</v>
+        <v>0.002048166592446776</v>
       </c>
       <c r="J19">
-        <v>0.4871526037580622</v>
+        <v>0.4644347923304508</v>
       </c>
       <c r="K19">
-        <v>0.4185292138122989</v>
+        <v>0.3520628790523581</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1619673989404724</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1102048140631737</v>
       </c>
       <c r="N19">
-        <v>0.125188088313763</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4484270104077268</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8466518434874573</v>
+        <v>0.1319175177448102</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4307152194678778</v>
+      </c>
+      <c r="R19">
+        <v>0.8851074061623123</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.281570665999936</v>
+        <v>3.05653109855399</v>
       </c>
       <c r="C20">
-        <v>0.7245652041000028</v>
+        <v>0.756233231167073</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05911120580388163</v>
+        <v>0.05676508503857147</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.9227747484271447</v>
+        <v>0.7736724894641895</v>
       </c>
       <c r="H20">
-        <v>0.0001348021657618936</v>
+        <v>0.0001331862837687936</v>
       </c>
       <c r="I20">
-        <v>0.002140252349128957</v>
+        <v>0.002497300477219078</v>
       </c>
       <c r="J20">
-        <v>0.5813235233791261</v>
+        <v>0.5215932280827076</v>
       </c>
       <c r="K20">
-        <v>0.5166849631804382</v>
+        <v>0.4217903044508589</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1855260026844654</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1399135898833954</v>
       </c>
       <c r="N20">
-        <v>0.2382032499352817</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5714113195026798</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.787519954979377</v>
+        <v>0.2483313242464078</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5460408853460805</v>
+      </c>
+      <c r="R20">
+        <v>0.8188085541884078</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.712875478105673</v>
+        <v>3.393671762529323</v>
       </c>
       <c r="C21">
-        <v>0.8091662027854341</v>
+        <v>0.8190557557942384</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06323437449727476</v>
+        <v>0.06001329107533937</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.021685331558459</v>
+        <v>0.9219465096522867</v>
       </c>
       <c r="H21">
-        <v>0.0005015435747730557</v>
+        <v>0.0003787019052690077</v>
       </c>
       <c r="I21">
-        <v>0.00348181543637871</v>
+        <v>0.003547574923688401</v>
       </c>
       <c r="J21">
-        <v>0.6222377919233963</v>
+        <v>0.4206343590116148</v>
       </c>
       <c r="K21">
-        <v>0.5458844141033694</v>
+        <v>0.4187511011606091</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1773107517580641</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1484894570157991</v>
       </c>
       <c r="N21">
-        <v>0.2743862633040379</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.6510073548651789</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7528702900539308</v>
+        <v>0.2839824425823565</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6129516572448637</v>
+      </c>
+      <c r="R21">
+        <v>0.8084121235680541</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.991709039548539</v>
+        <v>3.607383419976031</v>
       </c>
       <c r="C22">
-        <v>0.8647810474716948</v>
+        <v>0.8581227460783509</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06590281738385206</v>
+        <v>0.06220132120461208</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.083209849154315</v>
+        <v>1.024804622975907</v>
       </c>
       <c r="H22">
-        <v>0.001127326121950656</v>
+        <v>0.0008348024008657529</v>
       </c>
       <c r="I22">
-        <v>0.004447211878800594</v>
+        <v>0.004121683771170837</v>
       </c>
       <c r="J22">
-        <v>0.6474583130607812</v>
+        <v>0.3563064876785376</v>
       </c>
       <c r="K22">
-        <v>0.5632511470760591</v>
+        <v>0.4143472483036632</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1712739119892106</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1533953487875515</v>
       </c>
       <c r="N22">
-        <v>0.2918374453678467</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.6986496593525331</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7318219940300743</v>
+        <v>0.3008091461528295</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6518080494785607</v>
+      </c>
+      <c r="R22">
+        <v>0.8054567989993728</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.848948275762211</v>
+        <v>3.504903202816877</v>
       </c>
       <c r="C23">
-        <v>0.8336258701342558</v>
+        <v>0.8391026558305157</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06450684314341903</v>
+        <v>0.06105780730640342</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>1.054345829899418</v>
+        <v>0.9647261374688725</v>
       </c>
       <c r="H23">
-        <v>0.000768133049326547</v>
+        <v>0.0005781219728970832</v>
       </c>
       <c r="I23">
-        <v>0.003617644856160673</v>
+        <v>0.003457732812813141</v>
       </c>
       <c r="J23">
-        <v>0.6359961694013663</v>
+        <v>0.4035349288791679</v>
       </c>
       <c r="K23">
-        <v>0.5564185881475439</v>
+        <v>0.4207336539606672</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1758437272927011</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1524350206618053</v>
       </c>
       <c r="N23">
-        <v>0.2823034707735843</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.6738861150669067</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7421991621621018</v>
+        <v>0.2917675400664734</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6325956603356317</v>
+      </c>
+      <c r="R23">
+        <v>0.8038444591869123</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.299053927789544</v>
+        <v>3.071502677857836</v>
       </c>
       <c r="C24">
-        <v>0.7190569958745812</v>
+        <v>0.7512717636830359</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05925340313206195</v>
+        <v>0.05682361067672548</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.9407151946024186</v>
+        <v>0.7880285143891967</v>
       </c>
       <c r="H24">
-        <v>2.476656628358498E-05</v>
+        <v>2.250993935715151E-05</v>
       </c>
       <c r="I24">
-        <v>0.001682160093654517</v>
+        <v>0.001936157778976266</v>
       </c>
       <c r="J24">
-        <v>0.5905044805804494</v>
+        <v>0.5303123520448878</v>
       </c>
       <c r="K24">
-        <v>0.5275065862884176</v>
+        <v>0.4304315460287711</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1887832442774489</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1431477291853938</v>
       </c>
       <c r="N24">
-        <v>0.2467191969888347</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5791905427466304</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7842482743109329</v>
+        <v>0.2571293464969955</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5534506889389164</v>
+      </c>
+      <c r="R24">
+        <v>0.8132608696647523</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.706963674112558</v>
+        <v>2.53721842456298</v>
       </c>
       <c r="C25">
-        <v>0.5972828051693568</v>
+        <v>0.6218870196850617</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0537102435069946</v>
+        <v>0.05217922618139803</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.8225591603029727</v>
+        <v>0.6919415729917802</v>
       </c>
       <c r="H25">
-        <v>0.0004188525262807108</v>
+        <v>0.0003252756427079007</v>
       </c>
       <c r="I25">
-        <v>0.001087273720100868</v>
+        <v>0.001296086145266884</v>
       </c>
       <c r="J25">
-        <v>0.543888153667254</v>
+        <v>0.5087638742366067</v>
       </c>
       <c r="K25">
-        <v>0.4983014617903123</v>
+        <v>0.4184484073215486</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.194851352338187</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1260364063018748</v>
       </c>
       <c r="N25">
-        <v>0.208620272480843</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4773426044297864</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8324135277918288</v>
+        <v>0.2183241234780411</v>
       </c>
       <c r="Q25">
+        <v>0.4582371028901022</v>
+      </c>
+      <c r="R25">
+        <v>0.843316960973489</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
